--- a/assets/data/template/calculator_v1.xlsx
+++ b/assets/data/template/calculator_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\soccer-bet\assets\data\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\07_PHP\CronJob\Src\assets\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7553A31-E29B-4498-9549-841EEC22341F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645285B-19D7-482D-B78A-B64C1CAE0E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25215" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Match" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="236">
   <si>
     <t>POSITION</t>
   </si>
@@ -715,91 +715,10 @@
     <t>Leicester</t>
   </si>
   <si>
-    <t>WLWWW</t>
-  </si>
-  <si>
-    <t>WLWWL</t>
-  </si>
-  <si>
     <t>WLLDD</t>
   </si>
   <si>
-    <t>WDWLD</t>
-  </si>
-  <si>
-    <t>Manchester Utd</t>
-  </si>
-  <si>
-    <t>WDWWD</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>DWDWW</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>DWWDD</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>DLLWW</t>
-  </si>
-  <si>
-    <t>LWWWD</t>
-  </si>
-  <si>
-    <t>DDWWD</t>
-  </si>
-  <si>
-    <t>WWWLL</t>
-  </si>
-  <si>
-    <t>LDLWW</t>
-  </si>
-  <si>
-    <t>WLLWL</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>WDLLD</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>DLDDD</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>LWLLD</t>
-  </si>
-  <si>
     <t>LWLDL</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>LDLLW</t>
-  </si>
-  <si>
-    <t>DLLLL</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>LLWLL</t>
   </si>
   <si>
     <t>England &gt;&gt; Premier League</t>
@@ -831,21 +750,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -853,14 +772,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -868,7 +787,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -876,7 +795,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -913,7 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -927,7 +846,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,6 +947,13 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1717,7 +1643,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1729,7 +1655,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1737,17 +1663,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1756,21 +1682,21 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1781,7 +1707,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1801,19 +1727,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="11" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,7 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1868,7 +1794,7 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,14 +1840,14 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1993,7 +1919,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2010,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2210,7 +2136,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2227,7 +2153,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2258,10 +2184,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2270,10 +2196,10 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2285,7 +2211,7 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2306,7 +2232,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2332,65 +2258,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2431,10 +2300,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,13 +2333,70 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3175,49 +3101,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW101" activeCellId="3" sqref="AQ101 AS101 AU101 AW101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="17" width="6.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="61" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="17" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="61" customWidth="1"/>
+    <col min="19" max="19" width="9.58203125" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" customWidth="1"/>
-    <col min="25" max="29" width="7.140625" customWidth="1"/>
-    <col min="30" max="31" width="8.7109375" customWidth="1"/>
-    <col min="32" max="34" width="8.5703125" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" customWidth="1"/>
-    <col min="37" max="50" width="6.85546875" customWidth="1"/>
-    <col min="51" max="52" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="22" width="19.58203125" customWidth="1"/>
+    <col min="23" max="23" width="23.75" customWidth="1"/>
+    <col min="24" max="24" width="21.25" customWidth="1"/>
+    <col min="25" max="29" width="7.1640625" customWidth="1"/>
+    <col min="30" max="31" width="8.75" customWidth="1"/>
+    <col min="32" max="34" width="8.58203125" customWidth="1"/>
+    <col min="35" max="35" width="6.83203125" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" customWidth="1"/>
+    <col min="37" max="50" width="6.83203125" customWidth="1"/>
+    <col min="51" max="52" width="9.75" customWidth="1"/>
     <col min="53" max="60" width="8" customWidth="1"/>
-    <col min="61" max="61" width="11.42578125" customWidth="1"/>
+    <col min="61" max="61" width="11.4140625" customWidth="1"/>
     <col min="62" max="71" width="8" customWidth="1"/>
     <col min="72" max="72" width="13" customWidth="1"/>
-    <col min="74" max="76" width="7.28515625" customWidth="1"/>
+    <col min="74" max="76" width="7.25" customWidth="1"/>
     <col min="77" max="78" width="10" customWidth="1"/>
-    <col min="79" max="83" width="9.5703125" customWidth="1"/>
-    <col min="84" max="85" width="8.5703125" customWidth="1"/>
-    <col min="95" max="102" width="7.28515625" customWidth="1"/>
+    <col min="79" max="83" width="9.58203125" customWidth="1"/>
+    <col min="84" max="85" width="8.58203125" customWidth="1"/>
+    <col min="95" max="102" width="7.25" customWidth="1"/>
     <col min="103" max="104" width="10" customWidth="1"/>
-    <col min="105" max="106" width="7.28515625" customWidth="1"/>
+    <col min="105" max="106" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="67">
         <v>1</v>
       </c>
@@ -3240,12 +3166,12 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="304" t="s">
+      <c r="L1" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="306"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="287"/>
       <c r="U1" s="69"/>
       <c r="V1" s="70" t="s">
         <v>6</v>
@@ -3370,7 +3296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="67" t="str">
         <f>B1</f>
         <v>Watford - Leicester</v>
@@ -3601,7 +3527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
@@ -3863,7 +3789,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
@@ -4187,7 +4113,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="101"/>
       <c r="B5" s="102" t="s">
         <v>26</v>
@@ -4195,26 +4121,26 @@
       <c r="C5" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="307" t="s">
+      <c r="D5" s="288" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="307"/>
-      <c r="F5" s="308" t="s">
+      <c r="E5" s="288"/>
+      <c r="F5" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="308"/>
-      <c r="Q5" s="308"/>
-      <c r="R5" s="308"/>
-      <c r="S5" s="309"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="289"/>
+      <c r="Q5" s="289"/>
+      <c r="R5" s="289"/>
+      <c r="S5" s="290"/>
       <c r="U5" s="84">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4529,7 +4455,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="104" t="s">
         <v>31</v>
       </c>
@@ -4911,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="113">
         <f>A1</f>
         <v>1</v>
@@ -5280,7 +5206,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -5604,7 +5530,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="U9" s="84">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5927,7 +5853,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="U10" s="84">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6204,7 +6130,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="U11" s="84">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6478,7 +6404,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="M12" s="61"/>
       <c r="U12" s="84">
         <f t="shared" si="4"/>
@@ -6707,7 +6633,7 @@
       <c r="DQ12" s="127"/>
       <c r="DR12" s="128"/>
     </row>
-    <row r="13" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="M13" s="61"/>
       <c r="U13" s="84">
         <f t="shared" si="4"/>
@@ -6927,7 +6853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="M14" s="129">
         <f t="shared" ref="M14:O18" si="21">BC35</f>
         <v>1</v>
@@ -7184,7 +7110,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -7461,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:122" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="133"/>
       <c r="B16" s="80" t="s">
         <v>51</v>
@@ -7744,7 +7670,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="104" t="s">
         <v>31</v>
       </c>
@@ -8017,7 +7943,7 @@
       <c r="DE17" s="131"/>
       <c r="DF17" s="131"/>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="84">
         <f>A1</f>
         <v>1</v>
@@ -8302,7 +8228,7 @@
       <c r="DE18" s="131"/>
       <c r="DF18" s="131"/>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84"/>
       <c r="C19" s="115"/>
       <c r="D19" s="61"/>
@@ -8533,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="133"/>
       <c r="B20" s="80" t="s">
         <v>57</v>
@@ -8774,7 +8700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="104" t="s">
         <v>31</v>
       </c>
@@ -9046,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="84">
         <f>A1</f>
         <v>1</v>
@@ -9197,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="84"/>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
@@ -9405,7 +9331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="133"/>
       <c r="B24" s="80" t="s">
         <v>66</v>
@@ -9639,7 +9565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="104" t="s">
         <v>31</v>
       </c>
@@ -9849,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="84">
         <f>A1</f>
         <v>1</v>
@@ -10030,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="84"/>
       <c r="C27" s="115"/>
       <c r="D27" s="61"/>
@@ -10237,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="133"/>
       <c r="B28" s="80" t="s">
         <v>72</v>
@@ -10417,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="104" t="s">
         <v>31</v>
       </c>
@@ -10556,7 +10482,7 @@
       <c r="DF29" s="184"/>
       <c r="DG29" s="185"/>
     </row>
-    <row r="30" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="84">
         <f>A1</f>
         <v>1</v>
@@ -10728,7 +10654,7 @@
       <c r="CL30" s="187"/>
       <c r="CM30" s="187"/>
     </row>
-    <row r="31" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="126"/>
       <c r="B31" s="127"/>
       <c r="C31" s="127"/>
@@ -10910,7 +10836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="191" t="s">
         <v>77</v>
       </c>
@@ -11017,43 +10943,18 @@
       <c r="CY32" s="185"/>
       <c r="CZ32" s="131"/>
     </row>
-    <row r="33" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="195">
-        <v>1</v>
-      </c>
-      <c r="B33" s="64">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="9">
-        <v>29</v>
-      </c>
-      <c r="E33" s="9">
-        <v>27</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <v>66</v>
-      </c>
-      <c r="I33" s="9">
-        <v>21</v>
-      </c>
-      <c r="J33" s="9">
-        <v>45</v>
-      </c>
-      <c r="K33" s="9">
-        <v>82</v>
-      </c>
-      <c r="L33" s="196" t="s">
-        <v>226</v>
-      </c>
+    <row r="33" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="195"/>
+      <c r="B33" s="64"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="196"/>
       <c r="U33" s="63"/>
       <c r="V33" s="63"/>
       <c r="W33" s="84"/>
@@ -11161,43 +11062,18 @@
       <c r="DF33" s="131"/>
       <c r="DG33" s="131"/>
     </row>
-    <row r="34" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A34" s="195">
-        <v>2</v>
-      </c>
-      <c r="B34" s="64">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="9">
-        <v>29</v>
-      </c>
-      <c r="E34" s="9">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9">
-        <v>3</v>
-      </c>
-      <c r="G34" s="9">
-        <v>7</v>
-      </c>
-      <c r="H34" s="9">
-        <v>71</v>
-      </c>
-      <c r="I34" s="9">
-        <v>31</v>
-      </c>
-      <c r="J34" s="9">
-        <v>40</v>
-      </c>
-      <c r="K34" s="9">
-        <v>60</v>
-      </c>
-      <c r="L34" s="196" t="s">
-        <v>227</v>
-      </c>
+    <row r="34" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="195"/>
+      <c r="B34" s="64"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="196"/>
       <c r="U34" s="74"/>
       <c r="V34" s="74"/>
       <c r="W34" s="200" t="s">
@@ -11273,43 +11149,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="195">
-        <v>3</v>
-      </c>
-      <c r="B35" s="64">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="9">
-        <v>29</v>
-      </c>
-      <c r="E35" s="9">
-        <v>16</v>
-      </c>
-      <c r="F35" s="9">
-        <v>5</v>
-      </c>
-      <c r="G35" s="9">
-        <v>8</v>
-      </c>
-      <c r="H35" s="9">
-        <v>58</v>
-      </c>
-      <c r="I35" s="9">
-        <v>28</v>
-      </c>
-      <c r="J35" s="9">
-        <v>30</v>
-      </c>
-      <c r="K35" s="9">
-        <v>53</v>
-      </c>
-      <c r="L35" s="196" t="s">
-        <v>228</v>
-      </c>
+    <row r="35" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="195"/>
+      <c r="B35" s="64"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="196"/>
       <c r="U35" s="74"/>
       <c r="W35" s="201">
         <v>17</v>
@@ -11342,7 +11193,7 @@
         <v>27</v>
       </c>
       <c r="AG35" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="AJ35" s="167" t="str">
         <f>AC27</f>
@@ -11436,43 +11287,18 @@
       <c r="CM35" s="187"/>
       <c r="CN35" s="187"/>
     </row>
-    <row r="36" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="195">
-        <v>4</v>
-      </c>
-      <c r="B36" s="64">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="9">
-        <v>29</v>
-      </c>
-      <c r="E36" s="9">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9">
-        <v>6</v>
-      </c>
-      <c r="G36" s="9">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9">
-        <v>51</v>
-      </c>
-      <c r="I36" s="9">
-        <v>39</v>
-      </c>
-      <c r="J36" s="9">
-        <v>12</v>
-      </c>
-      <c r="K36" s="9">
-        <v>48</v>
-      </c>
-      <c r="L36" s="196" t="s">
-        <v>229</v>
-      </c>
+    <row r="36" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="195"/>
+      <c r="B36" s="64"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="196"/>
       <c r="U36" s="74"/>
       <c r="W36" s="202">
         <v>13</v>
@@ -11505,7 +11331,7 @@
         <v>53</v>
       </c>
       <c r="AG36" s="203" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH36" s="127"/>
       <c r="AI36" s="127"/>
@@ -11651,43 +11477,18 @@
         <v>csPr=#11,1.4167846609758,12,,,,,#</v>
       </c>
     </row>
-    <row r="37" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="195">
-        <v>5</v>
-      </c>
-      <c r="B37" s="64">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="9">
-        <v>29</v>
-      </c>
-      <c r="E37" s="9">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9">
-        <v>9</v>
-      </c>
-      <c r="G37" s="9">
-        <v>8</v>
-      </c>
-      <c r="H37" s="9">
-        <v>44</v>
-      </c>
-      <c r="I37" s="9">
-        <v>30</v>
-      </c>
-      <c r="J37" s="9">
-        <v>14</v>
-      </c>
-      <c r="K37" s="9">
-        <v>45</v>
-      </c>
-      <c r="L37" s="196" t="s">
-        <v>231</v>
-      </c>
+    <row r="37" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="195"/>
+      <c r="B37" s="64"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="196"/>
       <c r="U37" s="74"/>
       <c r="W37" s="209" t="s">
         <v>0</v>
@@ -11805,43 +11606,18 @@
         <v>37.500999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="195">
-        <v>6</v>
-      </c>
-      <c r="B38" s="64">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="9">
-        <v>29</v>
-      </c>
-      <c r="E38" s="9">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9">
-        <v>11</v>
-      </c>
-      <c r="G38" s="9">
-        <v>7</v>
-      </c>
-      <c r="H38" s="9">
-        <v>30</v>
-      </c>
-      <c r="I38" s="9">
-        <v>25</v>
-      </c>
-      <c r="J38" s="9">
-        <v>5</v>
-      </c>
-      <c r="K38" s="9">
-        <v>44</v>
-      </c>
-      <c r="L38" s="196" t="s">
-        <v>233</v>
-      </c>
+    <row r="38" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="195"/>
+      <c r="B38" s="64"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="196"/>
       <c r="W38" s="213" t="s">
         <v>3</v>
       </c>
@@ -11977,43 +11753,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="195">
-        <v>7</v>
-      </c>
-      <c r="B39" s="64">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="9">
-        <v>29</v>
-      </c>
-      <c r="E39" s="9">
-        <v>10</v>
-      </c>
-      <c r="F39" s="9">
-        <v>13</v>
-      </c>
-      <c r="G39" s="9">
-        <v>6</v>
-      </c>
-      <c r="H39" s="9">
-        <v>41</v>
-      </c>
-      <c r="I39" s="9">
-        <v>34</v>
-      </c>
-      <c r="J39" s="9">
-        <v>7</v>
-      </c>
-      <c r="K39" s="9">
-        <v>43</v>
-      </c>
-      <c r="L39" s="196" t="s">
-        <v>235</v>
-      </c>
+    <row r="39" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="195"/>
+      <c r="B39" s="64"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="196"/>
       <c r="W39" s="214">
         <f>W35-W36</f>
         <v>4</v>
@@ -12122,43 +11873,18 @@
         <v>X2</v>
       </c>
     </row>
-    <row r="40" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A40" s="195">
-        <v>8</v>
-      </c>
-      <c r="B40" s="64">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="9">
-        <v>29</v>
-      </c>
-      <c r="E40" s="9">
-        <v>11</v>
-      </c>
-      <c r="F40" s="9">
-        <v>8</v>
-      </c>
-      <c r="G40" s="9">
-        <v>10</v>
-      </c>
-      <c r="H40" s="9">
-        <v>47</v>
-      </c>
-      <c r="I40" s="9">
-        <v>40</v>
-      </c>
-      <c r="J40" s="9">
-        <v>7</v>
-      </c>
-      <c r="K40" s="9">
-        <v>41</v>
-      </c>
-      <c r="L40" s="196" t="s">
-        <v>237</v>
-      </c>
+    <row r="40" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="195"/>
+      <c r="B40" s="64"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="196"/>
       <c r="V40" s="159"/>
       <c r="W40" s="66" t="str">
         <f>IF(OR(W39="",W39="*"),"",(TRIM(CONCATENATE(IF(W39&gt;=3,"2",""),IF(W39&lt;3,IF(W39&gt;=1,"X2",""),""),IF(W39&gt;-3,IF(W39&lt;=-1,"1X",""),""),IF(W39&gt;-1,IF(W39&lt;1,"X",""),""),IF(W39&gt;-30,IF(W39&lt;=-3,"1",""),"")))))</f>
@@ -12201,43 +11927,18 @@
       <c r="AW40" s="74"/>
       <c r="AX40" s="155"/>
     </row>
-    <row r="41" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="195">
-        <v>9</v>
-      </c>
-      <c r="B41" s="64">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="9">
-        <v>29</v>
-      </c>
-      <c r="E41" s="9">
-        <v>9</v>
-      </c>
-      <c r="F41" s="9">
-        <v>13</v>
-      </c>
-      <c r="G41" s="9">
-        <v>7</v>
-      </c>
-      <c r="H41" s="9">
-        <v>40</v>
-      </c>
-      <c r="I41" s="9">
-        <v>39</v>
-      </c>
-      <c r="J41" s="9">
-        <v>1</v>
-      </c>
-      <c r="K41" s="9">
-        <v>40</v>
-      </c>
-      <c r="L41" s="196" t="s">
-        <v>238</v>
-      </c>
+    <row r="41" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="195"/>
+      <c r="B41" s="64"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="196"/>
       <c r="W41" s="218" t="str">
         <f>IF(W40="","",IF(LEN(W40)&lt;=2,IF(W40="X1","1X",IF(W40="21","12",IF(W40="2X","X2",IF(W40="11","1",IF(W40="XX","X",IF(W40="22","2",W40)))))),CONCATENATE(IF(IFERROR(FIND("1",W40,1),0)&lt;&gt;0,"1",""),IF(IFERROR(FIND("X",W40,1),0)&lt;&gt;0,"X",""),IF(IFERROR(FIND("2",W40,1),0)&lt;&gt;0,"2",""))))</f>
         <v>2</v>
@@ -12281,43 +11982,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="195">
-        <v>10</v>
-      </c>
-      <c r="B42" s="64">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="9">
-        <v>29</v>
-      </c>
-      <c r="E42" s="9">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9">
-        <v>6</v>
-      </c>
-      <c r="G42" s="9">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9">
-        <v>34</v>
-      </c>
-      <c r="I42" s="9">
-        <v>40</v>
-      </c>
-      <c r="J42" s="9">
-        <v>-6</v>
-      </c>
-      <c r="K42" s="9">
-        <v>39</v>
-      </c>
-      <c r="L42" s="196" t="s">
-        <v>239</v>
-      </c>
+    <row r="42" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="195"/>
+      <c r="B42" s="64"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="196"/>
       <c r="Y42">
         <f>(SUM(AA2:AA17)/16)-(SUM(Z2:Z17)/16)</f>
         <v>0</v>
@@ -12388,43 +12064,18 @@
       </c>
       <c r="BP42" s="190"/>
     </row>
-    <row r="43" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A43" s="195">
-        <v>11</v>
-      </c>
-      <c r="B43" s="64">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="9">
-        <v>29</v>
-      </c>
-      <c r="E43" s="9">
-        <v>10</v>
-      </c>
-      <c r="F43" s="9">
-        <v>9</v>
-      </c>
-      <c r="G43" s="9">
-        <v>10</v>
-      </c>
-      <c r="H43" s="9">
-        <v>26</v>
-      </c>
-      <c r="I43" s="9">
-        <v>32</v>
-      </c>
-      <c r="J43" s="9">
-        <v>-6</v>
-      </c>
-      <c r="K43" s="9">
-        <v>39</v>
-      </c>
-      <c r="L43" s="196" t="s">
-        <v>240</v>
-      </c>
+    <row r="43" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="195"/>
+      <c r="B43" s="64"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="196"/>
       <c r="BF43">
         <f>VLOOKUP(1,BC55:BF70,3,FALSE)</f>
         <v>62.51</v>
@@ -12442,84 +12093,34 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="195">
-        <v>12</v>
-      </c>
-      <c r="B44" s="64">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="9">
-        <v>29</v>
-      </c>
-      <c r="E44" s="9">
-        <v>10</v>
-      </c>
-      <c r="F44" s="9">
-        <v>7</v>
-      </c>
-      <c r="G44" s="9">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9">
-        <v>37</v>
-      </c>
-      <c r="I44" s="9">
-        <v>46</v>
-      </c>
-      <c r="J44" s="9">
-        <v>-9</v>
-      </c>
-      <c r="K44" s="9">
-        <v>37</v>
-      </c>
-      <c r="L44" s="196" t="s">
-        <v>241</v>
-      </c>
+    <row r="44" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="195"/>
+      <c r="B44" s="64"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="196"/>
       <c r="BB44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="195">
-        <v>13</v>
-      </c>
-      <c r="B45" s="64">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="9">
-        <v>30</v>
-      </c>
-      <c r="E45" s="9">
-        <v>11</v>
-      </c>
-      <c r="F45" s="9">
-        <v>4</v>
-      </c>
-      <c r="G45" s="9">
-        <v>15</v>
-      </c>
-      <c r="H45" s="9">
-        <v>38</v>
-      </c>
-      <c r="I45" s="9">
-        <v>52</v>
-      </c>
-      <c r="J45" s="9">
-        <v>-14</v>
-      </c>
-      <c r="K45" s="9">
-        <v>37</v>
-      </c>
-      <c r="L45" s="196" t="s">
-        <v>242</v>
-      </c>
+    <row r="45" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="195"/>
+      <c r="B45" s="64"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="196"/>
       <c r="BA45" s="205">
         <f>BA27</f>
         <v>1</v>
@@ -12583,43 +12184,18 @@
         <v>+2,5g</v>
       </c>
     </row>
-    <row r="46" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="195">
-        <v>14</v>
-      </c>
-      <c r="B46" s="64">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D46" s="9">
-        <v>29</v>
-      </c>
-      <c r="E46" s="9">
-        <v>9</v>
-      </c>
-      <c r="F46" s="9">
-        <v>8</v>
-      </c>
-      <c r="G46" s="9">
-        <v>12</v>
-      </c>
-      <c r="H46" s="9">
-        <v>25</v>
-      </c>
-      <c r="I46" s="9">
-        <v>41</v>
-      </c>
-      <c r="J46" s="9">
-        <v>-16</v>
-      </c>
-      <c r="K46" s="9">
-        <v>35</v>
-      </c>
-      <c r="L46" s="196" t="s">
-        <v>244</v>
-      </c>
+    <row r="46" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="195"/>
+      <c r="B46" s="64"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="196"/>
       <c r="Y46" s="69" t="str">
         <f>AA1</f>
         <v>Vt1</v>
@@ -12660,43 +12236,18 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="47" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A47" s="195">
-        <v>15</v>
-      </c>
-      <c r="B47" s="64">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="9">
-        <v>29</v>
-      </c>
-      <c r="E47" s="9">
-        <v>6</v>
-      </c>
-      <c r="F47" s="9">
-        <v>11</v>
-      </c>
-      <c r="G47" s="9">
-        <v>12</v>
-      </c>
-      <c r="H47" s="9">
-        <v>32</v>
-      </c>
-      <c r="I47" s="9">
-        <v>40</v>
-      </c>
-      <c r="J47" s="9">
-        <v>-8</v>
-      </c>
-      <c r="K47" s="9">
-        <v>29</v>
-      </c>
-      <c r="L47" s="196" t="s">
-        <v>246</v>
-      </c>
+    <row r="47" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="195"/>
+      <c r="B47" s="64"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="196"/>
       <c r="X47">
         <v>1</v>
       </c>
@@ -12753,43 +12304,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="195">
-        <v>16</v>
-      </c>
-      <c r="B48" s="64">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="9">
-        <v>29</v>
-      </c>
-      <c r="E48" s="9">
-        <v>7</v>
-      </c>
-      <c r="F48" s="9">
-        <v>6</v>
-      </c>
-      <c r="G48" s="9">
-        <v>16</v>
-      </c>
-      <c r="H48" s="9">
-        <v>35</v>
-      </c>
-      <c r="I48" s="9">
-        <v>50</v>
-      </c>
-      <c r="J48" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K48" s="9">
-        <v>27</v>
-      </c>
-      <c r="L48" s="196" t="s">
-        <v>248</v>
-      </c>
+    <row r="48" spans="1:111" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="195"/>
+      <c r="B48" s="64"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="196"/>
       <c r="X48">
         <v>2</v>
       </c>
@@ -12854,43 +12380,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A49" s="195">
-        <v>17</v>
-      </c>
-      <c r="B49" s="64">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="9">
-        <v>29</v>
-      </c>
-      <c r="E49" s="9">
-        <v>6</v>
-      </c>
-      <c r="F49" s="9">
-        <v>9</v>
-      </c>
-      <c r="G49" s="9">
-        <v>14</v>
-      </c>
-      <c r="H49" s="9">
-        <v>27</v>
-      </c>
-      <c r="I49" s="9">
-        <v>44</v>
-      </c>
-      <c r="J49" s="9">
-        <v>-17</v>
-      </c>
-      <c r="K49" s="9">
-        <v>27</v>
-      </c>
-      <c r="L49" s="196" t="s">
-        <v>249</v>
-      </c>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="195"/>
+      <c r="B49" s="64"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="196"/>
       <c r="X49">
         <v>3</v>
       </c>
@@ -12935,43 +12436,18 @@
       <c r="BQ49" s="224"/>
       <c r="BR49" s="224"/>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
-        <v>18</v>
-      </c>
-      <c r="B50" s="64">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="9">
-        <v>29</v>
-      </c>
-      <c r="E50" s="9">
-        <v>7</v>
-      </c>
-      <c r="F50" s="9">
-        <v>6</v>
-      </c>
-      <c r="G50" s="9">
-        <v>16</v>
-      </c>
-      <c r="H50" s="9">
-        <v>29</v>
-      </c>
-      <c r="I50" s="9">
-        <v>47</v>
-      </c>
-      <c r="J50" s="9">
-        <v>-18</v>
-      </c>
-      <c r="K50" s="9">
-        <v>27</v>
-      </c>
-      <c r="L50" s="196" t="s">
-        <v>251</v>
-      </c>
+    <row r="50" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="196"/>
       <c r="M50" s="150"/>
       <c r="N50" s="150"/>
       <c r="O50" s="150"/>
@@ -12995,43 +12471,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A51" s="64">
-        <v>19</v>
-      </c>
-      <c r="B51" s="64">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="9">
-        <v>29</v>
-      </c>
-      <c r="E51" s="9">
-        <v>7</v>
-      </c>
-      <c r="F51" s="9">
-        <v>5</v>
-      </c>
-      <c r="G51" s="9">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9">
-        <v>34</v>
-      </c>
-      <c r="I51" s="9">
-        <v>56</v>
-      </c>
-      <c r="J51" s="9">
-        <v>-22</v>
-      </c>
-      <c r="K51" s="9">
-        <v>26</v>
-      </c>
-      <c r="L51" s="196" t="s">
-        <v>252</v>
-      </c>
+    <row r="51" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="196"/>
       <c r="X51">
         <v>5</v>
       </c>
@@ -13112,43 +12563,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
-        <v>20</v>
-      </c>
-      <c r="B52" s="64">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="9">
-        <v>30</v>
-      </c>
-      <c r="E52" s="9">
-        <v>5</v>
-      </c>
-      <c r="F52" s="9">
-        <v>6</v>
-      </c>
-      <c r="G52" s="9">
-        <v>19</v>
-      </c>
-      <c r="H52" s="9">
-        <v>25</v>
-      </c>
-      <c r="I52" s="9">
-        <v>55</v>
-      </c>
-      <c r="J52" s="9">
-        <v>-30</v>
-      </c>
-      <c r="K52" s="9">
-        <v>21</v>
-      </c>
-      <c r="L52" s="196" t="s">
-        <v>254</v>
-      </c>
+    <row r="52" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="196"/>
       <c r="X52">
         <v>6</v>
       </c>
@@ -13165,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="61"/>
       <c r="B53" s="61"/>
       <c r="D53" s="9"/>
@@ -13261,7 +12687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="61"/>
       <c r="B54" s="61"/>
       <c r="D54" s="9"/>
@@ -13304,7 +12730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="61"/>
       <c r="B55" s="61"/>
       <c r="D55" s="9"/>
@@ -13357,7 +12783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="61"/>
       <c r="B56" s="61"/>
       <c r="D56" s="9"/>
@@ -13411,7 +12837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="61"/>
       <c r="B57" s="61"/>
       <c r="D57" s="9"/>
@@ -13459,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="61"/>
       <c r="B58" s="61"/>
       <c r="D58" s="9"/>
@@ -13513,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="228"/>
       <c r="B59" s="228"/>
       <c r="C59" s="127"/>
@@ -13565,7 +12991,7 @@
       <c r="BS59" s="63"/>
       <c r="BT59" s="63"/>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="H60" s="61"/>
       <c r="I60" s="61"/>
       <c r="J60" s="61"/>
@@ -13616,7 +13042,7 @@
       <c r="BS60" s="74"/>
       <c r="BT60" s="74"/>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="T61" s="61"/>
       <c r="X61">
         <v>15</v>
@@ -13657,7 +13083,7 @@
       <c r="BS61" s="74"/>
       <c r="BT61" s="74"/>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="61"/>
       <c r="E62" s="61"/>
       <c r="F62" s="61"/>
@@ -13713,26 +13139,26 @@
       <c r="BS62" s="74"/>
       <c r="BT62" s="74"/>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="232"/>
       <c r="B63" s="150"/>
       <c r="C63" s="233"/>
-      <c r="D63" s="303"/>
-      <c r="E63" s="303"/>
-      <c r="F63" s="311"/>
-      <c r="G63" s="311"/>
-      <c r="H63" s="311"/>
-      <c r="I63" s="311"/>
-      <c r="J63" s="311"/>
-      <c r="K63" s="311"/>
-      <c r="L63" s="311"/>
-      <c r="M63" s="311"/>
-      <c r="N63" s="311"/>
-      <c r="O63" s="311"/>
-      <c r="P63" s="311"/>
-      <c r="Q63" s="311"/>
-      <c r="R63" s="311"/>
-      <c r="S63" s="311"/>
+      <c r="D63" s="284"/>
+      <c r="E63" s="284"/>
+      <c r="F63" s="292"/>
+      <c r="G63" s="292"/>
+      <c r="H63" s="292"/>
+      <c r="I63" s="292"/>
+      <c r="J63" s="292"/>
+      <c r="K63" s="292"/>
+      <c r="L63" s="292"/>
+      <c r="M63" s="292"/>
+      <c r="N63" s="292"/>
+      <c r="O63" s="292"/>
+      <c r="P63" s="292"/>
+      <c r="Q63" s="292"/>
+      <c r="R63" s="292"/>
+      <c r="S63" s="292"/>
       <c r="T63" s="61"/>
       <c r="X63">
         <v>17</v>
@@ -13773,7 +13199,7 @@
       <c r="BS63" s="74"/>
       <c r="BT63" s="74"/>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="232"/>
       <c r="B64" s="150"/>
       <c r="C64" s="233"/>
@@ -13829,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="115"/>
       <c r="B65" s="115"/>
       <c r="C65" s="115"/>
@@ -13885,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E66" s="61"/>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
@@ -13933,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="232"/>
       <c r="B67" s="150"/>
       <c r="C67" s="233"/>
@@ -13944,9 +13370,9 @@
       <c r="H67" s="235"/>
       <c r="I67" s="235"/>
       <c r="J67" s="235"/>
-      <c r="K67" s="303"/>
-      <c r="L67" s="303"/>
-      <c r="M67" s="303"/>
+      <c r="K67" s="284"/>
+      <c r="L67" s="284"/>
+      <c r="M67" s="284"/>
       <c r="T67" s="61"/>
       <c r="U67" s="61"/>
       <c r="V67" s="61"/>
@@ -13972,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="232"/>
       <c r="B68" s="150"/>
       <c r="E68" s="37"/>
@@ -14046,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="61"/>
       <c r="E69" s="115"/>
       <c r="F69" s="115"/>
@@ -14079,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="M70" s="61"/>
       <c r="T70" s="61"/>
       <c r="U70" s="61"/>
@@ -14103,26 +13529,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="M71" s="61"/>
       <c r="T71" s="61"/>
       <c r="U71" s="61"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="M72" s="241"/>
       <c r="N72" s="241"/>
       <c r="O72" s="241"/>
       <c r="T72" s="61"/>
       <c r="U72" s="61"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="M73" s="241"/>
       <c r="N73" s="241"/>
       <c r="O73" s="241"/>
       <c r="T73" s="61"/>
       <c r="U73" s="61"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="232"/>
       <c r="B74" s="150"/>
       <c r="C74" s="233"/>
@@ -14141,7 +13567,7 @@
       <c r="T74" s="61"/>
       <c r="U74" s="61"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="232"/>
       <c r="B75" s="150"/>
       <c r="C75" s="242"/>
@@ -14158,7 +13584,7 @@
       <c r="T75" s="61"/>
       <c r="U75" s="61"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="61"/>
       <c r="C76" s="115"/>
       <c r="F76" s="115"/>
@@ -14174,7 +13600,7 @@
       <c r="T76" s="61"/>
       <c r="U76" s="61"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="115"/>
       <c r="D77" s="61"/>
       <c r="E77" s="115"/>
@@ -14189,7 +13615,7 @@
       <c r="T77" s="61"/>
       <c r="U77" s="61"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="232"/>
       <c r="B78" s="150"/>
       <c r="K78" s="61"/>
@@ -14197,7 +13623,7 @@
       <c r="T78" s="61"/>
       <c r="U78" s="61"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="232"/>
       <c r="B79" s="150"/>
       <c r="K79" s="150"/>
@@ -14208,7 +13634,7 @@
       <c r="T79" s="61"/>
       <c r="U79" s="61"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="61"/>
       <c r="K80" s="61"/>
       <c r="L80" s="61"/>
@@ -14218,7 +13644,7 @@
       <c r="T80" s="61"/>
       <c r="U80" s="61"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="61"/>
       <c r="F81" s="61"/>
       <c r="G81" s="61"/>
@@ -14231,7 +13657,7 @@
       <c r="T81" s="61"/>
       <c r="U81" s="61"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="232"/>
       <c r="B82" s="150"/>
       <c r="C82" s="233"/>
@@ -14248,7 +13674,7 @@
       <c r="T82" s="61"/>
       <c r="U82" s="61"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="232"/>
       <c r="B83" s="150"/>
       <c r="C83" s="22"/>
@@ -14265,7 +13691,7 @@
       <c r="T83" s="61"/>
       <c r="U83" s="61"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="61"/>
       <c r="C84" s="115"/>
       <c r="E84" s="115"/>
@@ -14280,7 +13706,7 @@
       <c r="T84" s="61"/>
       <c r="U84" s="61"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="115"/>
       <c r="D85" s="61"/>
       <c r="E85" s="115"/>
@@ -14295,7 +13721,7 @@
       <c r="T85" s="61"/>
       <c r="U85" s="61"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="232"/>
       <c r="B86" s="150"/>
       <c r="C86" s="233"/>
@@ -14312,7 +13738,7 @@
       <c r="T86" s="61"/>
       <c r="U86" s="61"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="232"/>
       <c r="B87" s="150"/>
       <c r="C87" s="22"/>
@@ -14328,7 +13754,7 @@
       <c r="T87" s="61"/>
       <c r="U87" s="61"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="61"/>
       <c r="C88" s="61"/>
       <c r="E88" s="61"/>
@@ -14343,12 +13769,12 @@
       <c r="T88" s="61"/>
       <c r="U88" s="61"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="T89" s="61"/>
       <c r="U89" s="61"/>
       <c r="V89" s="61"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="61"/>
       <c r="E90" s="61"/>
       <c r="F90" s="61"/>
@@ -14368,7 +13794,7 @@
       <c r="U90" s="61"/>
       <c r="V90" s="61"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="133"/>
       <c r="B91" s="80" t="s">
         <v>40</v>
@@ -14389,11 +13815,11 @@
         <v>43</v>
       </c>
       <c r="J91" s="109"/>
-      <c r="K91" s="310" t="s">
+      <c r="K91" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="L91" s="310"/>
-      <c r="M91" s="310"/>
+      <c r="L91" s="291"/>
+      <c r="M91" s="291"/>
       <c r="N91" s="61"/>
       <c r="O91" s="61"/>
       <c r="P91" s="61"/>
@@ -14403,7 +13829,7 @@
       <c r="U91" s="61"/>
       <c r="V91" s="61"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="104" t="s">
         <v>31</v>
       </c>
@@ -14452,7 +13878,7 @@
       <c r="U92" s="61"/>
       <c r="V92" s="61"/>
     </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="126">
         <f>A1</f>
         <v>1</v>
@@ -14514,7 +13940,7 @@
       <c r="U93" s="61"/>
       <c r="V93" s="61"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="61"/>
       <c r="E94" s="61"/>
       <c r="F94" s="61"/>
@@ -14534,7 +13960,7 @@
       <c r="U94" s="61"/>
       <c r="V94" s="61"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="61"/>
       <c r="E95" s="61"/>
       <c r="F95" s="61"/>
@@ -14554,7 +13980,7 @@
       <c r="U95" s="61"/>
       <c r="V95" s="61"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="61"/>
       <c r="E96" s="61"/>
       <c r="F96" s="61"/>
@@ -14574,7 +14000,7 @@
       <c r="U96" s="61"/>
       <c r="V96" s="61"/>
     </row>
-    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="61"/>
       <c r="E97" s="61"/>
       <c r="F97" s="61"/>
@@ -14594,76 +14020,76 @@
       <c r="U97" s="61"/>
       <c r="V97" s="61"/>
     </row>
-    <row r="98" spans="1:89" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="279" t="s">
+    <row r="98" spans="1:89" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="307" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="294" t="s">
+      <c r="C98" s="310" t="s">
         <v>143</v>
       </c>
-      <c r="D98" s="297" t="s">
+      <c r="D98" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="E98" s="297" t="s">
+      <c r="E98" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="F98" s="297" t="s">
+      <c r="F98" s="313" t="s">
         <v>146</v>
       </c>
-      <c r="G98" s="312" t="s">
+      <c r="G98" s="293" t="s">
         <v>147</v>
       </c>
-      <c r="H98" s="314" t="s">
+      <c r="H98" s="295" t="s">
         <v>170</v>
       </c>
-      <c r="I98" s="314" t="s">
+      <c r="I98" s="295" t="s">
         <v>148</v>
       </c>
-      <c r="J98" s="314" t="s">
+      <c r="J98" s="295" t="s">
         <v>149</v>
       </c>
-      <c r="K98" s="316" t="s">
+      <c r="K98" s="297" t="s">
         <v>171</v>
       </c>
-      <c r="L98" s="317"/>
-      <c r="M98" s="318"/>
-      <c r="N98" s="320" t="s">
+      <c r="L98" s="298"/>
+      <c r="M98" s="299"/>
+      <c r="N98" s="301" t="s">
         <v>172</v>
       </c>
-      <c r="O98" s="321"/>
-      <c r="P98" s="322"/>
-      <c r="Q98" s="316" t="s">
+      <c r="O98" s="302"/>
+      <c r="P98" s="303"/>
+      <c r="Q98" s="297" t="s">
         <v>150</v>
       </c>
-      <c r="R98" s="317"/>
-      <c r="S98" s="318"/>
-      <c r="T98" s="299" t="s">
+      <c r="R98" s="298"/>
+      <c r="S98" s="299"/>
+      <c r="T98" s="280" t="s">
         <v>173</v>
       </c>
-      <c r="U98" s="301" t="s">
+      <c r="U98" s="282" t="s">
         <v>29</v>
       </c>
-      <c r="V98" s="302"/>
-      <c r="W98" s="302"/>
+      <c r="V98" s="283"/>
+      <c r="W98" s="283"/>
       <c r="X98" s="247"/>
       <c r="Y98" s="247"/>
       <c r="Z98" s="248"/>
-      <c r="AA98" s="289" t="s">
+      <c r="AA98" s="304" t="s">
         <v>29</v>
       </c>
-      <c r="AB98" s="290"/>
-      <c r="AC98" s="291"/>
-      <c r="AD98" s="289" t="s">
+      <c r="AB98" s="305"/>
+      <c r="AC98" s="306"/>
+      <c r="AD98" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="AE98" s="290"/>
-      <c r="AF98" s="290"/>
-      <c r="AG98" s="290"/>
-      <c r="AH98" s="290"/>
-      <c r="AI98" s="290"/>
-      <c r="AJ98" s="290"/>
-      <c r="AK98" s="291"/>
-      <c r="AL98" s="279" t="s">
+      <c r="AE98" s="305"/>
+      <c r="AF98" s="305"/>
+      <c r="AG98" s="305"/>
+      <c r="AH98" s="305"/>
+      <c r="AI98" s="305"/>
+      <c r="AJ98" s="305"/>
+      <c r="AK98" s="306"/>
+      <c r="AL98" s="307" t="s">
         <v>151</v>
       </c>
       <c r="AM98" s="249" t="s">
@@ -14704,52 +14130,52 @@
       <c r="BT98" s="251"/>
       <c r="BU98" s="251"/>
       <c r="BV98" s="252"/>
-      <c r="BW98" s="283" t="s">
+      <c r="BW98" s="317" t="s">
         <v>153</v>
       </c>
-      <c r="BX98" s="283"/>
-      <c r="BY98" s="283"/>
-      <c r="BZ98" s="283" t="s">
+      <c r="BX98" s="317"/>
+      <c r="BY98" s="317"/>
+      <c r="BZ98" s="317" t="s">
         <v>154</v>
       </c>
-      <c r="CA98" s="283"/>
-      <c r="CB98" s="283"/>
-      <c r="CC98" s="283" t="s">
+      <c r="CA98" s="317"/>
+      <c r="CB98" s="317"/>
+      <c r="CC98" s="317" t="s">
         <v>155</v>
       </c>
-      <c r="CD98" s="283"/>
-      <c r="CE98" s="283"/>
-      <c r="CF98" s="283" t="s">
+      <c r="CD98" s="317"/>
+      <c r="CE98" s="317"/>
+      <c r="CF98" s="317" t="s">
         <v>154</v>
       </c>
-      <c r="CG98" s="283"/>
-      <c r="CH98" s="283"/>
-      <c r="CI98" s="283" t="s">
+      <c r="CG98" s="317"/>
+      <c r="CH98" s="317"/>
+      <c r="CI98" s="317" t="s">
         <v>155</v>
       </c>
-      <c r="CJ98" s="283"/>
-      <c r="CK98" s="283"/>
-    </row>
-    <row r="99" spans="1:89" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="293"/>
-      <c r="C99" s="295"/>
-      <c r="D99" s="298"/>
-      <c r="E99" s="298"/>
-      <c r="F99" s="298"/>
-      <c r="G99" s="313"/>
-      <c r="H99" s="315"/>
-      <c r="I99" s="315"/>
-      <c r="J99" s="315"/>
-      <c r="K99" s="301"/>
-      <c r="L99" s="302"/>
-      <c r="M99" s="319"/>
-      <c r="N99" s="289"/>
-      <c r="O99" s="290"/>
-      <c r="P99" s="291"/>
-      <c r="Q99" s="301"/>
-      <c r="R99" s="302"/>
-      <c r="S99" s="319"/>
-      <c r="T99" s="300"/>
+      <c r="CJ98" s="317"/>
+      <c r="CK98" s="317"/>
+    </row>
+    <row r="99" spans="1:89" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="308"/>
+      <c r="C99" s="311"/>
+      <c r="D99" s="314"/>
+      <c r="E99" s="314"/>
+      <c r="F99" s="314"/>
+      <c r="G99" s="294"/>
+      <c r="H99" s="296"/>
+      <c r="I99" s="296"/>
+      <c r="J99" s="296"/>
+      <c r="K99" s="282"/>
+      <c r="L99" s="283"/>
+      <c r="M99" s="300"/>
+      <c r="N99" s="304"/>
+      <c r="O99" s="305"/>
+      <c r="P99" s="306"/>
+      <c r="Q99" s="282"/>
+      <c r="R99" s="283"/>
+      <c r="S99" s="300"/>
+      <c r="T99" s="281"/>
       <c r="U99" s="253" t="s">
         <v>27</v>
       </c>
@@ -14769,53 +14195,53 @@
         <v>43</v>
       </c>
       <c r="AC99" s="109"/>
-      <c r="AD99" s="284" t="s">
+      <c r="AD99" s="318" t="s">
         <v>44</v>
       </c>
-      <c r="AE99" s="284"/>
-      <c r="AF99" s="284"/>
-      <c r="AG99" s="284"/>
-      <c r="AH99" s="284"/>
-      <c r="AI99" s="284"/>
-      <c r="AJ99" s="284"/>
-      <c r="AK99" s="284"/>
-      <c r="AL99" s="292"/>
-      <c r="AM99" s="285" t="s">
+      <c r="AE99" s="318"/>
+      <c r="AF99" s="318"/>
+      <c r="AG99" s="318"/>
+      <c r="AH99" s="318"/>
+      <c r="AI99" s="318"/>
+      <c r="AJ99" s="318"/>
+      <c r="AK99" s="318"/>
+      <c r="AL99" s="315"/>
+      <c r="AM99" s="319" t="s">
         <v>156</v>
       </c>
-      <c r="AN99" s="285" t="s">
+      <c r="AN99" s="319" t="s">
         <v>157</v>
       </c>
-      <c r="AO99" s="286" t="s">
+      <c r="AO99" s="320" t="s">
         <v>147</v>
       </c>
-      <c r="AP99" s="286" t="s">
+      <c r="AP99" s="320" t="s">
         <v>147</v>
       </c>
-      <c r="AQ99" s="287"/>
-      <c r="AR99" s="287"/>
-      <c r="AS99" s="287"/>
-      <c r="AT99" s="287"/>
-      <c r="AU99" s="287"/>
-      <c r="AV99" s="287"/>
-      <c r="AW99" s="287"/>
-      <c r="AX99" s="287"/>
-      <c r="AY99" s="288" t="s">
+      <c r="AQ99" s="321"/>
+      <c r="AR99" s="321"/>
+      <c r="AS99" s="321"/>
+      <c r="AT99" s="321"/>
+      <c r="AU99" s="321"/>
+      <c r="AV99" s="321"/>
+      <c r="AW99" s="321"/>
+      <c r="AX99" s="321"/>
+      <c r="AY99" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="AZ99" s="288"/>
-      <c r="BA99" s="288"/>
-      <c r="BB99" s="288"/>
-      <c r="BC99" s="288"/>
-      <c r="BD99" s="288"/>
-      <c r="BE99" s="288"/>
-      <c r="BF99" s="288"/>
-      <c r="BG99" s="288"/>
-      <c r="BH99" s="288"/>
-      <c r="BI99" s="288"/>
-      <c r="BJ99" s="288"/>
-      <c r="BK99" s="288"/>
-      <c r="BL99" s="288"/>
+      <c r="AZ99" s="322"/>
+      <c r="BA99" s="322"/>
+      <c r="BB99" s="322"/>
+      <c r="BC99" s="322"/>
+      <c r="BD99" s="322"/>
+      <c r="BE99" s="322"/>
+      <c r="BF99" s="322"/>
+      <c r="BG99" s="322"/>
+      <c r="BH99" s="322"/>
+      <c r="BI99" s="322"/>
+      <c r="BJ99" s="322"/>
+      <c r="BK99" s="322"/>
+      <c r="BL99" s="322"/>
       <c r="BM99" s="106" t="s">
         <v>27</v>
       </c>
@@ -14836,55 +14262,55 @@
         <v>61</v>
       </c>
       <c r="BV99" s="109"/>
-      <c r="BW99" s="281" t="s">
+      <c r="BW99" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="BX99" s="279" t="s">
+      <c r="BX99" s="307" t="s">
         <v>159</v>
       </c>
-      <c r="BY99" s="279" t="s">
+      <c r="BY99" s="307" t="s">
         <v>160</v>
       </c>
-      <c r="BZ99" s="281" t="s">
+      <c r="BZ99" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="CA99" s="279" t="s">
+      <c r="CA99" s="307" t="s">
         <v>159</v>
       </c>
-      <c r="CB99" s="279" t="s">
+      <c r="CB99" s="307" t="s">
         <v>160</v>
       </c>
-      <c r="CC99" s="281" t="s">
+      <c r="CC99" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="CD99" s="279" t="s">
+      <c r="CD99" s="307" t="s">
         <v>159</v>
       </c>
-      <c r="CE99" s="279" t="s">
+      <c r="CE99" s="307" t="s">
         <v>160</v>
       </c>
-      <c r="CF99" s="281" t="s">
+      <c r="CF99" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="CG99" s="279" t="s">
+      <c r="CG99" s="307" t="s">
         <v>159</v>
       </c>
-      <c r="CH99" s="279" t="s">
+      <c r="CH99" s="307" t="s">
         <v>160</v>
       </c>
-      <c r="CI99" s="281" t="s">
+      <c r="CI99" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="CJ99" s="279" t="s">
+      <c r="CJ99" s="307" t="s">
         <v>159</v>
       </c>
-      <c r="CK99" s="279" t="s">
+      <c r="CK99" s="307" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:89" s="86" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="280"/>
-      <c r="C100" s="296"/>
+    <row r="100" spans="1:89" s="86" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="309"/>
+      <c r="C100" s="312"/>
       <c r="D100" s="256" t="s">
         <v>118</v>
       </c>
@@ -14985,11 +14411,11 @@
       <c r="AK100" s="167">
         <v>2</v>
       </c>
-      <c r="AL100" s="282"/>
-      <c r="AM100" s="285"/>
-      <c r="AN100" s="285"/>
-      <c r="AO100" s="286"/>
-      <c r="AP100" s="286"/>
+      <c r="AL100" s="316"/>
+      <c r="AM100" s="319"/>
+      <c r="AN100" s="319"/>
+      <c r="AO100" s="320"/>
+      <c r="AP100" s="320"/>
       <c r="AQ100" s="264" t="s">
         <v>163</v>
       </c>
@@ -15082,23 +14508,23 @@
       </c>
       <c r="BU100" s="141"/>
       <c r="BV100" s="141"/>
-      <c r="BW100" s="282"/>
-      <c r="BX100" s="280"/>
-      <c r="BY100" s="280"/>
-      <c r="BZ100" s="282"/>
-      <c r="CA100" s="280"/>
-      <c r="CB100" s="280"/>
-      <c r="CC100" s="282"/>
-      <c r="CD100" s="280"/>
-      <c r="CE100" s="280"/>
-      <c r="CF100" s="282"/>
-      <c r="CG100" s="280"/>
-      <c r="CH100" s="280"/>
-      <c r="CI100" s="282"/>
-      <c r="CJ100" s="280"/>
-      <c r="CK100" s="280"/>
-    </row>
-    <row r="101" spans="1:89" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BW100" s="316"/>
+      <c r="BX100" s="309"/>
+      <c r="BY100" s="309"/>
+      <c r="BZ100" s="316"/>
+      <c r="CA100" s="309"/>
+      <c r="CB100" s="309"/>
+      <c r="CC100" s="316"/>
+      <c r="CD100" s="309"/>
+      <c r="CE100" s="309"/>
+      <c r="CF100" s="316"/>
+      <c r="CG100" s="309"/>
+      <c r="CH100" s="309"/>
+      <c r="CI100" s="316"/>
+      <c r="CJ100" s="309"/>
+      <c r="CK100" s="309"/>
+    </row>
+    <row r="101" spans="1:89" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="86">
         <v>1</v>
       </c>
@@ -15263,7 +14689,7 @@
         <f>N2</f>
         <v>X</v>
       </c>
-      <c r="AQ101" s="325">
+      <c r="AQ101" s="279">
         <f>VLOOKUP(1,BC55:BF70,4,FALSE)</f>
         <v>11</v>
       </c>
@@ -15271,7 +14697,7 @@
         <f>VLOOKUP(1,BC55:BF70,3,FALSE)</f>
         <v>62.51</v>
       </c>
-      <c r="AS101" s="325">
+      <c r="AS101" s="279">
         <f>VLOOKUP(2,BC55:BF70,4,FALSE)</f>
         <v>12</v>
       </c>
@@ -15279,7 +14705,7 @@
         <f>VLOOKUP(2,BC55:BF70,3,FALSE)</f>
         <v>37.51</v>
       </c>
-      <c r="AU101" s="325">
+      <c r="AU101" s="279">
         <f>VLOOKUP(3,BC55:BF70,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -15287,7 +14713,7 @@
         <f>VLOOKUP(3,BC55:BF70,3,FALSE)</f>
         <v>0.02</v>
       </c>
-      <c r="AW101" s="325">
+      <c r="AW101" s="279">
         <f>VLOOKUP(4,BC55:BF70,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -15452,7 +14878,7 @@
         <v>39.167000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" s="61"/>
       <c r="E102" s="61"/>
       <c r="F102" s="61"/>
@@ -15539,7 +14965,7 @@
       <c r="CJ102" s="61"/>
       <c r="CK102" s="61"/>
     </row>
-    <row r="103" spans="1:89" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:89" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D103" s="61"/>
       <c r="E103" s="61"/>
       <c r="F103" s="61"/>
@@ -15626,7 +15052,7 @@
       <c r="CJ103" s="61"/>
       <c r="CK103" s="61"/>
     </row>
-    <row r="104" spans="1:89" s="179" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:89" s="179" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="177"/>
       <c r="D104" s="275" t="s">
         <v>175</v>
@@ -15921,7 +15347,7 @@
         <v>39.167000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" s="61"/>
       <c r="E105" s="61"/>
       <c r="F105" s="61"/>
@@ -16008,7 +15434,7 @@
       <c r="CJ105" s="61"/>
       <c r="CK105" s="61"/>
     </row>
-    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" s="61"/>
       <c r="E106" s="61"/>
       <c r="F106" s="61"/>
@@ -16027,7 +15453,7 @@
       <c r="T106" s="61"/>
       <c r="U106" s="61"/>
     </row>
-    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" s="61"/>
       <c r="E107" s="61"/>
       <c r="F107" s="61"/>
@@ -16046,7 +15472,7 @@
       <c r="T107" s="61"/>
       <c r="U107" s="61"/>
     </row>
-    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" s="61"/>
       <c r="E108" s="61"/>
       <c r="F108" s="61"/>
@@ -16065,7 +15491,7 @@
       <c r="T108" s="61"/>
       <c r="U108" s="61"/>
     </row>
-    <row r="109" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" s="61"/>
       <c r="E109" s="61"/>
       <c r="F109" s="61"/>
@@ -16084,7 +15510,7 @@
       <c r="T109" s="61"/>
       <c r="U109" s="61"/>
     </row>
-    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" s="61"/>
       <c r="E110" s="61"/>
       <c r="F110" s="61"/>
@@ -16103,7 +15529,7 @@
       <c r="T110" s="61"/>
       <c r="U110" s="61"/>
     </row>
-    <row r="111" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" s="61"/>
       <c r="E111" s="61"/>
       <c r="F111" s="61"/>
@@ -16122,7 +15548,7 @@
       <c r="T111" s="61"/>
       <c r="U111" s="61"/>
     </row>
-    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:89" x14ac:dyDescent="0.55000000000000004">
       <c r="D112" s="61"/>
       <c r="E112" s="61"/>
       <c r="F112" s="61"/>
@@ -16141,7 +15567,7 @@
       <c r="T112" s="61"/>
       <c r="U112" s="61"/>
     </row>
-    <row r="113" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" s="61"/>
       <c r="E113" s="61"/>
       <c r="F113" s="61"/>
@@ -16160,7 +15586,7 @@
       <c r="T113" s="61"/>
       <c r="U113" s="61"/>
     </row>
-    <row r="114" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" s="61"/>
       <c r="E114" s="61"/>
       <c r="F114" s="61"/>
@@ -16179,7 +15605,7 @@
       <c r="T114" s="61"/>
       <c r="U114" s="61"/>
     </row>
-    <row r="115" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" s="61"/>
       <c r="E115" s="61"/>
       <c r="F115" s="61"/>
@@ -16198,7 +15624,7 @@
       <c r="T115" s="61"/>
       <c r="U115" s="61"/>
     </row>
-    <row r="116" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" s="61"/>
       <c r="E116" s="61"/>
       <c r="F116" s="61"/>
@@ -16217,7 +15643,7 @@
       <c r="T116" s="61"/>
       <c r="U116" s="61"/>
     </row>
-    <row r="117" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" s="61"/>
       <c r="E117" s="61"/>
       <c r="F117" s="61"/>
@@ -16236,7 +15662,7 @@
       <c r="T117" s="61"/>
       <c r="U117" s="61"/>
     </row>
-    <row r="118" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" s="61"/>
       <c r="E118" s="61"/>
       <c r="F118" s="61"/>
@@ -16255,7 +15681,7 @@
       <c r="T118" s="61"/>
       <c r="U118" s="61"/>
     </row>
-    <row r="119" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" s="61"/>
       <c r="E119" s="61"/>
       <c r="F119" s="61"/>
@@ -16274,7 +15700,7 @@
       <c r="T119" s="61"/>
       <c r="U119" s="61"/>
     </row>
-    <row r="120" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" s="61"/>
       <c r="E120" s="61"/>
       <c r="F120" s="61"/>
@@ -16293,7 +15719,7 @@
       <c r="T120" s="61"/>
       <c r="U120" s="61"/>
     </row>
-    <row r="121" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" s="61"/>
       <c r="E121" s="61"/>
       <c r="F121" s="61"/>
@@ -16312,7 +15738,7 @@
       <c r="T121" s="61"/>
       <c r="U121" s="61"/>
     </row>
-    <row r="122" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" s="61"/>
       <c r="E122" s="61"/>
       <c r="F122" s="61"/>
@@ -16331,7 +15757,7 @@
       <c r="T122" s="61"/>
       <c r="U122" s="61"/>
     </row>
-    <row r="123" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="61"/>
       <c r="E123" s="61"/>
       <c r="F123" s="61"/>
@@ -16350,7 +15776,7 @@
       <c r="T123" s="61"/>
       <c r="U123" s="61"/>
     </row>
-    <row r="124" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="61"/>
       <c r="E124" s="61"/>
       <c r="F124" s="61"/>
@@ -16369,7 +15795,7 @@
       <c r="T124" s="61"/>
       <c r="U124" s="61"/>
     </row>
-    <row r="125" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" s="61"/>
       <c r="E125" s="61"/>
       <c r="F125" s="61"/>
@@ -16388,7 +15814,7 @@
       <c r="T125" s="61"/>
       <c r="U125" s="61"/>
     </row>
-    <row r="126" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" s="61"/>
       <c r="E126" s="61"/>
       <c r="F126" s="61"/>
@@ -16407,7 +15833,7 @@
       <c r="T126" s="61"/>
       <c r="U126" s="61"/>
     </row>
-    <row r="127" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" s="61"/>
       <c r="E127" s="61"/>
       <c r="F127" s="61"/>
@@ -16426,7 +15852,7 @@
       <c r="T127" s="61"/>
       <c r="U127" s="61"/>
     </row>
-    <row r="128" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="61"/>
       <c r="E128" s="61"/>
       <c r="F128" s="61"/>
@@ -16445,7 +15871,7 @@
       <c r="T128" s="61"/>
       <c r="U128" s="61"/>
     </row>
-    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" s="61"/>
       <c r="E129" s="61"/>
       <c r="F129" s="61"/>
@@ -16464,7 +15890,7 @@
       <c r="T129" s="61"/>
       <c r="U129" s="61"/>
     </row>
-    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="61"/>
       <c r="E130" s="61"/>
       <c r="F130" s="61"/>
@@ -16483,7 +15909,7 @@
       <c r="T130" s="61"/>
       <c r="U130" s="61"/>
     </row>
-    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D131" s="61"/>
       <c r="E131" s="61"/>
       <c r="F131" s="61"/>
@@ -16502,7 +15928,7 @@
       <c r="T131" s="61"/>
       <c r="U131" s="61"/>
     </row>
-    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D132" s="61"/>
       <c r="E132" s="61"/>
       <c r="F132" s="61"/>
@@ -16521,7 +15947,7 @@
       <c r="T132" s="61"/>
       <c r="U132" s="61"/>
     </row>
-    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D133" s="61"/>
       <c r="E133" s="61"/>
       <c r="F133" s="61"/>
@@ -16540,7 +15966,7 @@
       <c r="T133" s="61"/>
       <c r="U133" s="61"/>
     </row>
-    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D134" s="61"/>
       <c r="E134" s="61"/>
       <c r="F134" s="61"/>
@@ -16559,7 +15985,7 @@
       <c r="T134" s="61"/>
       <c r="U134" s="61"/>
     </row>
-    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D135" s="61"/>
       <c r="E135" s="61"/>
       <c r="F135" s="61"/>
@@ -16578,7 +16004,7 @@
       <c r="T135" s="61"/>
       <c r="U135" s="61"/>
     </row>
-    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="61"/>
       <c r="E136" s="61"/>
       <c r="F136" s="61"/>
@@ -16597,7 +16023,7 @@
       <c r="T136" s="61"/>
       <c r="U136" s="61"/>
     </row>
-    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" s="61"/>
       <c r="E137" s="61"/>
       <c r="F137" s="61"/>
@@ -16616,7 +16042,7 @@
       <c r="T137" s="61"/>
       <c r="U137" s="61"/>
     </row>
-    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" s="61"/>
       <c r="E138" s="61"/>
       <c r="F138" s="61"/>
@@ -16635,7 +16061,7 @@
       <c r="T138" s="61"/>
       <c r="U138" s="61"/>
     </row>
-    <row r="139" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" s="61"/>
       <c r="E139" s="61"/>
       <c r="F139" s="61"/>
@@ -16654,7 +16080,7 @@
       <c r="T139" s="61"/>
       <c r="U139" s="61"/>
     </row>
-    <row r="140" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D140" s="61"/>
       <c r="E140" s="61"/>
       <c r="F140" s="61"/>
@@ -16673,7 +16099,7 @@
       <c r="T140" s="61"/>
       <c r="U140" s="61"/>
     </row>
-    <row r="141" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D141" s="61"/>
       <c r="E141" s="61"/>
       <c r="F141" s="61"/>
@@ -16692,7 +16118,7 @@
       <c r="T141" s="61"/>
       <c r="U141" s="61"/>
     </row>
-    <row r="142" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D142" s="61"/>
       <c r="E142" s="61"/>
       <c r="F142" s="61"/>
@@ -16711,7 +16137,7 @@
       <c r="T142" s="61"/>
       <c r="U142" s="61"/>
     </row>
-    <row r="143" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" s="61"/>
       <c r="E143" s="61"/>
       <c r="F143" s="61"/>
@@ -16730,7 +16156,7 @@
       <c r="T143" s="61"/>
       <c r="U143" s="61"/>
     </row>
-    <row r="144" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D144" s="61"/>
       <c r="E144" s="61"/>
       <c r="F144" s="61"/>
@@ -16749,7 +16175,7 @@
       <c r="T144" s="61"/>
       <c r="U144" s="61"/>
     </row>
-    <row r="145" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D145" s="61"/>
       <c r="E145" s="61"/>
       <c r="F145" s="61"/>
@@ -16768,7 +16194,7 @@
       <c r="T145" s="61"/>
       <c r="U145" s="61"/>
     </row>
-    <row r="146" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D146" s="61"/>
       <c r="E146" s="61"/>
       <c r="F146" s="61"/>
@@ -16787,7 +16213,7 @@
       <c r="T146" s="61"/>
       <c r="U146" s="61"/>
     </row>
-    <row r="147" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D147" s="61"/>
       <c r="E147" s="61"/>
       <c r="F147" s="61"/>
@@ -16806,7 +16232,7 @@
       <c r="T147" s="61"/>
       <c r="U147" s="61"/>
     </row>
-    <row r="148" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D148" s="61"/>
       <c r="E148" s="61"/>
       <c r="F148" s="61"/>
@@ -16825,7 +16251,7 @@
       <c r="T148" s="61"/>
       <c r="U148" s="61"/>
     </row>
-    <row r="149" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D149" s="61"/>
       <c r="E149" s="61"/>
       <c r="F149" s="61"/>
@@ -16844,7 +16270,7 @@
       <c r="T149" s="61"/>
       <c r="U149" s="61"/>
     </row>
-    <row r="150" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="61"/>
       <c r="E150" s="61"/>
       <c r="F150" s="61"/>
@@ -16863,7 +16289,7 @@
       <c r="T150" s="61"/>
       <c r="U150" s="61"/>
     </row>
-    <row r="151" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D151" s="61"/>
       <c r="E151" s="61"/>
       <c r="F151" s="61"/>
@@ -16882,7 +16308,7 @@
       <c r="T151" s="61"/>
       <c r="U151" s="61"/>
     </row>
-    <row r="152" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D152" s="61"/>
       <c r="E152" s="61"/>
       <c r="F152" s="61"/>
@@ -16901,7 +16327,7 @@
       <c r="T152" s="61"/>
       <c r="U152" s="61"/>
     </row>
-    <row r="153" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D153" s="61"/>
       <c r="E153" s="61"/>
       <c r="F153" s="61"/>
@@ -16920,7 +16346,7 @@
       <c r="T153" s="61"/>
       <c r="U153" s="61"/>
     </row>
-    <row r="154" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D154" s="61"/>
       <c r="E154" s="61"/>
       <c r="F154" s="61"/>
@@ -16939,7 +16365,7 @@
       <c r="T154" s="61"/>
       <c r="U154" s="61"/>
     </row>
-    <row r="155" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="61"/>
       <c r="E155" s="61"/>
       <c r="F155" s="61"/>
@@ -16958,7 +16384,7 @@
       <c r="T155" s="61"/>
       <c r="U155" s="61"/>
     </row>
-    <row r="156" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D156" s="61"/>
       <c r="E156" s="61"/>
       <c r="F156" s="61"/>
@@ -16977,7 +16403,7 @@
       <c r="T156" s="61"/>
       <c r="U156" s="61"/>
     </row>
-    <row r="157" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D157" s="61"/>
       <c r="E157" s="61"/>
       <c r="F157" s="61"/>
@@ -16996,7 +16422,7 @@
       <c r="T157" s="61"/>
       <c r="U157" s="61"/>
     </row>
-    <row r="158" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D158" s="61"/>
       <c r="E158" s="61"/>
       <c r="F158" s="61"/>
@@ -17015,7 +16441,7 @@
       <c r="T158" s="61"/>
       <c r="U158" s="61"/>
     </row>
-    <row r="159" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D159" s="61"/>
       <c r="E159" s="61"/>
       <c r="F159" s="61"/>
@@ -17034,7 +16460,7 @@
       <c r="T159" s="61"/>
       <c r="U159" s="61"/>
     </row>
-    <row r="160" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D160" s="61"/>
       <c r="E160" s="61"/>
       <c r="F160" s="61"/>
@@ -17053,7 +16479,7 @@
       <c r="T160" s="61"/>
       <c r="U160" s="61"/>
     </row>
-    <row r="161" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D161" s="61"/>
       <c r="E161" s="61"/>
       <c r="F161" s="61"/>
@@ -17072,7 +16498,7 @@
       <c r="T161" s="61"/>
       <c r="U161" s="61"/>
     </row>
-    <row r="162" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D162" s="61"/>
       <c r="E162" s="61"/>
       <c r="F162" s="61"/>
@@ -17091,7 +16517,7 @@
       <c r="T162" s="61"/>
       <c r="U162" s="61"/>
     </row>
-    <row r="163" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D163" s="61"/>
       <c r="E163" s="61"/>
       <c r="F163" s="61"/>
@@ -17110,7 +16536,7 @@
       <c r="T163" s="61"/>
       <c r="U163" s="61"/>
     </row>
-    <row r="164" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D164" s="61"/>
       <c r="E164" s="61"/>
       <c r="F164" s="61"/>
@@ -17129,7 +16555,7 @@
       <c r="T164" s="61"/>
       <c r="U164" s="61"/>
     </row>
-    <row r="165" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D165" s="61"/>
       <c r="E165" s="61"/>
       <c r="F165" s="61"/>
@@ -17148,7 +16574,7 @@
       <c r="T165" s="61"/>
       <c r="U165" s="61"/>
     </row>
-    <row r="166" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D166" s="61"/>
       <c r="E166" s="61"/>
       <c r="F166" s="61"/>
@@ -17167,7 +16593,7 @@
       <c r="T166" s="61"/>
       <c r="U166" s="61"/>
     </row>
-    <row r="167" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D167" s="61"/>
       <c r="E167" s="61"/>
       <c r="F167" s="61"/>
@@ -17186,7 +16612,7 @@
       <c r="T167" s="61"/>
       <c r="U167" s="61"/>
     </row>
-    <row r="168" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D168" s="61"/>
       <c r="E168" s="61"/>
       <c r="F168" s="61"/>
@@ -17205,7 +16631,7 @@
       <c r="T168" s="61"/>
       <c r="U168" s="61"/>
     </row>
-    <row r="169" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D169" s="61"/>
       <c r="E169" s="61"/>
       <c r="F169" s="61"/>
@@ -17224,7 +16650,7 @@
       <c r="T169" s="61"/>
       <c r="U169" s="61"/>
     </row>
-    <row r="170" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D170" s="61"/>
       <c r="E170" s="61"/>
       <c r="F170" s="61"/>
@@ -17243,7 +16669,7 @@
       <c r="T170" s="61"/>
       <c r="U170" s="61"/>
     </row>
-    <row r="171" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D171" s="61"/>
       <c r="E171" s="61"/>
       <c r="F171" s="61"/>
@@ -17262,7 +16688,7 @@
       <c r="T171" s="61"/>
       <c r="U171" s="61"/>
     </row>
-    <row r="172" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D172" s="61"/>
       <c r="E172" s="61"/>
       <c r="F172" s="61"/>
@@ -17281,7 +16707,7 @@
       <c r="T172" s="61"/>
       <c r="U172" s="61"/>
     </row>
-    <row r="173" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D173" s="61"/>
       <c r="E173" s="61"/>
       <c r="F173" s="61"/>
@@ -17300,7 +16726,7 @@
       <c r="T173" s="61"/>
       <c r="U173" s="61"/>
     </row>
-    <row r="174" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="61"/>
       <c r="E174" s="61"/>
       <c r="F174" s="61"/>
@@ -17319,7 +16745,7 @@
       <c r="T174" s="61"/>
       <c r="U174" s="61"/>
     </row>
-    <row r="175" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D175" s="61"/>
       <c r="E175" s="61"/>
       <c r="F175" s="61"/>
@@ -17338,7 +16764,7 @@
       <c r="T175" s="61"/>
       <c r="U175" s="61"/>
     </row>
-    <row r="176" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D176" s="61"/>
       <c r="E176" s="61"/>
       <c r="F176" s="61"/>
@@ -17357,7 +16783,7 @@
       <c r="T176" s="61"/>
       <c r="U176" s="61"/>
     </row>
-    <row r="177" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D177" s="61"/>
       <c r="E177" s="61"/>
       <c r="F177" s="61"/>
@@ -17376,7 +16802,7 @@
       <c r="T177" s="61"/>
       <c r="U177" s="61"/>
     </row>
-    <row r="178" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D178" s="61"/>
       <c r="E178" s="61"/>
       <c r="F178" s="61"/>
@@ -17395,7 +16821,7 @@
       <c r="T178" s="61"/>
       <c r="U178" s="61"/>
     </row>
-    <row r="179" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D179" s="61"/>
       <c r="E179" s="61"/>
       <c r="F179" s="61"/>
@@ -17414,7 +16840,7 @@
       <c r="T179" s="61"/>
       <c r="U179" s="61"/>
     </row>
-    <row r="180" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D180" s="61"/>
       <c r="E180" s="61"/>
       <c r="F180" s="61"/>
@@ -17433,7 +16859,7 @@
       <c r="T180" s="61"/>
       <c r="U180" s="61"/>
     </row>
-    <row r="181" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D181" s="61"/>
       <c r="E181" s="61"/>
       <c r="F181" s="61"/>
@@ -17452,7 +16878,7 @@
       <c r="T181" s="61"/>
       <c r="U181" s="61"/>
     </row>
-    <row r="182" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D182" s="61"/>
       <c r="E182" s="61"/>
       <c r="F182" s="61"/>
@@ -17471,7 +16897,7 @@
       <c r="T182" s="61"/>
       <c r="U182" s="61"/>
     </row>
-    <row r="183" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D183" s="61"/>
       <c r="E183" s="61"/>
       <c r="F183" s="61"/>
@@ -17490,7 +16916,7 @@
       <c r="T183" s="61"/>
       <c r="U183" s="61"/>
     </row>
-    <row r="184" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D184" s="61"/>
       <c r="E184" s="61"/>
       <c r="F184" s="61"/>
@@ -17509,7 +16935,7 @@
       <c r="T184" s="61"/>
       <c r="U184" s="61"/>
     </row>
-    <row r="185" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D185" s="61"/>
       <c r="E185" s="61"/>
       <c r="F185" s="61"/>
@@ -17528,7 +16954,7 @@
       <c r="T185" s="61"/>
       <c r="U185" s="61"/>
     </row>
-    <row r="186" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D186" s="61"/>
       <c r="E186" s="61"/>
       <c r="F186" s="61"/>
@@ -17547,7 +16973,7 @@
       <c r="T186" s="61"/>
       <c r="U186" s="61"/>
     </row>
-    <row r="187" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D187" s="61"/>
       <c r="E187" s="61"/>
       <c r="F187" s="61"/>
@@ -17566,7 +16992,7 @@
       <c r="T187" s="61"/>
       <c r="U187" s="61"/>
     </row>
-    <row r="188" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D188" s="61"/>
       <c r="E188" s="61"/>
       <c r="F188" s="61"/>
@@ -17585,7 +17011,7 @@
       <c r="T188" s="61"/>
       <c r="U188" s="61"/>
     </row>
-    <row r="189" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D189" s="61"/>
       <c r="E189" s="61"/>
       <c r="F189" s="61"/>
@@ -17604,7 +17030,7 @@
       <c r="T189" s="61"/>
       <c r="U189" s="61"/>
     </row>
-    <row r="190" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D190" s="61"/>
       <c r="E190" s="61"/>
       <c r="F190" s="61"/>
@@ -17623,7 +17049,7 @@
       <c r="T190" s="61"/>
       <c r="U190" s="61"/>
     </row>
-    <row r="191" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D191" s="61"/>
       <c r="E191" s="61"/>
       <c r="F191" s="61"/>
@@ -17642,7 +17068,7 @@
       <c r="T191" s="61"/>
       <c r="U191" s="61"/>
     </row>
-    <row r="192" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D192" s="61"/>
       <c r="E192" s="61"/>
       <c r="F192" s="61"/>
@@ -17661,7 +17087,7 @@
       <c r="T192" s="61"/>
       <c r="U192" s="61"/>
     </row>
-    <row r="193" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D193" s="61"/>
       <c r="E193" s="61"/>
       <c r="F193" s="61"/>
@@ -17680,7 +17106,7 @@
       <c r="T193" s="61"/>
       <c r="U193" s="61"/>
     </row>
-    <row r="194" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D194" s="61"/>
       <c r="E194" s="61"/>
       <c r="F194" s="61"/>
@@ -17699,7 +17125,7 @@
       <c r="T194" s="61"/>
       <c r="U194" s="61"/>
     </row>
-    <row r="195" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D195" s="61"/>
       <c r="E195" s="61"/>
       <c r="F195" s="61"/>
@@ -17718,7 +17144,7 @@
       <c r="T195" s="61"/>
       <c r="U195" s="61"/>
     </row>
-    <row r="196" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D196" s="61"/>
       <c r="E196" s="61"/>
       <c r="F196" s="61"/>
@@ -17737,7 +17163,7 @@
       <c r="T196" s="61"/>
       <c r="U196" s="61"/>
     </row>
-    <row r="197" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D197" s="61"/>
       <c r="E197" s="61"/>
       <c r="F197" s="61"/>
@@ -17756,7 +17182,7 @@
       <c r="T197" s="61"/>
       <c r="U197" s="61"/>
     </row>
-    <row r="198" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D198" s="61"/>
       <c r="E198" s="61"/>
       <c r="F198" s="61"/>
@@ -17775,7 +17201,7 @@
       <c r="T198" s="61"/>
       <c r="U198" s="61"/>
     </row>
-    <row r="199" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D199" s="61"/>
       <c r="E199" s="61"/>
       <c r="F199" s="61"/>
@@ -17794,7 +17220,7 @@
       <c r="T199" s="61"/>
       <c r="U199" s="61"/>
     </row>
-    <row r="200" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D200" s="61"/>
       <c r="E200" s="61"/>
       <c r="F200" s="61"/>
@@ -17813,7 +17239,7 @@
       <c r="T200" s="61"/>
       <c r="U200" s="61"/>
     </row>
-    <row r="201" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D201" s="61"/>
       <c r="E201" s="61"/>
       <c r="F201" s="61"/>
@@ -17832,7 +17258,7 @@
       <c r="T201" s="61"/>
       <c r="U201" s="61"/>
     </row>
-    <row r="202" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D202" s="61"/>
       <c r="E202" s="61"/>
       <c r="F202" s="61"/>
@@ -17851,7 +17277,7 @@
       <c r="T202" s="61"/>
       <c r="U202" s="61"/>
     </row>
-    <row r="203" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D203" s="61"/>
       <c r="E203" s="61"/>
       <c r="F203" s="61"/>
@@ -17870,7 +17296,7 @@
       <c r="T203" s="61"/>
       <c r="U203" s="61"/>
     </row>
-    <row r="204" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D204" s="61"/>
       <c r="E204" s="61"/>
       <c r="F204" s="61"/>
@@ -17889,7 +17315,7 @@
       <c r="T204" s="61"/>
       <c r="U204" s="61"/>
     </row>
-    <row r="205" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D205" s="61"/>
       <c r="E205" s="61"/>
       <c r="F205" s="61"/>
@@ -17908,7 +17334,7 @@
       <c r="T205" s="61"/>
       <c r="U205" s="61"/>
     </row>
-    <row r="206" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D206" s="61"/>
       <c r="E206" s="61"/>
       <c r="F206" s="61"/>
@@ -17927,7 +17353,7 @@
       <c r="T206" s="61"/>
       <c r="U206" s="61"/>
     </row>
-    <row r="207" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D207" s="61"/>
       <c r="E207" s="61"/>
       <c r="F207" s="61"/>
@@ -17946,7 +17372,7 @@
       <c r="T207" s="61"/>
       <c r="U207" s="61"/>
     </row>
-    <row r="208" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D208" s="61"/>
       <c r="E208" s="61"/>
       <c r="F208" s="61"/>
@@ -17965,7 +17391,7 @@
       <c r="T208" s="61"/>
       <c r="U208" s="61"/>
     </row>
-    <row r="209" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D209" s="61"/>
       <c r="E209" s="61"/>
       <c r="F209" s="61"/>
@@ -17984,7 +17410,7 @@
       <c r="T209" s="61"/>
       <c r="U209" s="61"/>
     </row>
-    <row r="210" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D210" s="61"/>
       <c r="E210" s="61"/>
       <c r="F210" s="61"/>
@@ -18003,7 +17429,7 @@
       <c r="T210" s="61"/>
       <c r="U210" s="61"/>
     </row>
-    <row r="211" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D211" s="61"/>
       <c r="E211" s="61"/>
       <c r="F211" s="61"/>
@@ -18022,7 +17448,7 @@
       <c r="T211" s="61"/>
       <c r="U211" s="61"/>
     </row>
-    <row r="212" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D212" s="61"/>
       <c r="E212" s="61"/>
       <c r="F212" s="61"/>
@@ -18041,7 +17467,7 @@
       <c r="T212" s="61"/>
       <c r="U212" s="61"/>
     </row>
-    <row r="213" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D213" s="61"/>
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
@@ -18060,7 +17486,7 @@
       <c r="T213" s="61"/>
       <c r="U213" s="61"/>
     </row>
-    <row r="214" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D214" s="61"/>
       <c r="E214" s="61"/>
       <c r="F214" s="61"/>
@@ -18079,7 +17505,7 @@
       <c r="T214" s="61"/>
       <c r="U214" s="61"/>
     </row>
-    <row r="215" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D215" s="61"/>
       <c r="E215" s="61"/>
       <c r="F215" s="61"/>
@@ -18098,7 +17524,7 @@
       <c r="T215" s="61"/>
       <c r="U215" s="61"/>
     </row>
-    <row r="216" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D216" s="61"/>
       <c r="E216" s="61"/>
       <c r="F216" s="61"/>
@@ -18117,7 +17543,7 @@
       <c r="T216" s="61"/>
       <c r="U216" s="61"/>
     </row>
-    <row r="217" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D217" s="61"/>
       <c r="E217" s="61"/>
       <c r="F217" s="61"/>
@@ -18136,7 +17562,7 @@
       <c r="T217" s="61"/>
       <c r="U217" s="61"/>
     </row>
-    <row r="218" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D218" s="61"/>
       <c r="E218" s="61"/>
       <c r="F218" s="61"/>
@@ -18155,7 +17581,7 @@
       <c r="T218" s="61"/>
       <c r="U218" s="61"/>
     </row>
-    <row r="219" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D219" s="61"/>
       <c r="E219" s="61"/>
       <c r="F219" s="61"/>
@@ -18174,7 +17600,7 @@
       <c r="T219" s="61"/>
       <c r="U219" s="61"/>
     </row>
-    <row r="220" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D220" s="61"/>
       <c r="E220" s="61"/>
       <c r="F220" s="61"/>
@@ -18193,7 +17619,7 @@
       <c r="T220" s="61"/>
       <c r="U220" s="61"/>
     </row>
-    <row r="221" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D221" s="61"/>
       <c r="E221" s="61"/>
       <c r="F221" s="61"/>
@@ -18212,7 +17638,7 @@
       <c r="T221" s="61"/>
       <c r="U221" s="61"/>
     </row>
-    <row r="222" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D222" s="61"/>
       <c r="E222" s="61"/>
       <c r="F222" s="61"/>
@@ -18231,7 +17657,7 @@
       <c r="T222" s="61"/>
       <c r="U222" s="61"/>
     </row>
-    <row r="223" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D223" s="61"/>
       <c r="E223" s="61"/>
       <c r="F223" s="61"/>
@@ -18250,7 +17676,7 @@
       <c r="T223" s="61"/>
       <c r="U223" s="61"/>
     </row>
-    <row r="224" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D224" s="61"/>
       <c r="E224" s="61"/>
       <c r="F224" s="61"/>
@@ -18269,7 +17695,7 @@
       <c r="T224" s="61"/>
       <c r="U224" s="61"/>
     </row>
-    <row r="225" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D225" s="61"/>
       <c r="E225" s="61"/>
       <c r="F225" s="61"/>
@@ -18288,7 +17714,7 @@
       <c r="T225" s="61"/>
       <c r="U225" s="61"/>
     </row>
-    <row r="226" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D226" s="61"/>
       <c r="E226" s="61"/>
       <c r="F226" s="61"/>
@@ -18307,7 +17733,7 @@
       <c r="T226" s="61"/>
       <c r="U226" s="61"/>
     </row>
-    <row r="227" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D227" s="61"/>
       <c r="E227" s="61"/>
       <c r="F227" s="61"/>
@@ -18326,7 +17752,7 @@
       <c r="T227" s="61"/>
       <c r="U227" s="61"/>
     </row>
-    <row r="228" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D228" s="61"/>
       <c r="E228" s="61"/>
       <c r="F228" s="61"/>
@@ -18345,7 +17771,7 @@
       <c r="T228" s="61"/>
       <c r="U228" s="61"/>
     </row>
-    <row r="229" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D229" s="61"/>
       <c r="E229" s="61"/>
       <c r="F229" s="61"/>
@@ -18364,7 +17790,7 @@
       <c r="T229" s="61"/>
       <c r="U229" s="61"/>
     </row>
-    <row r="230" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D230" s="61"/>
       <c r="E230" s="61"/>
       <c r="F230" s="61"/>
@@ -18383,7 +17809,7 @@
       <c r="T230" s="61"/>
       <c r="U230" s="61"/>
     </row>
-    <row r="231" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D231" s="61"/>
       <c r="E231" s="61"/>
       <c r="F231" s="61"/>
@@ -18402,7 +17828,7 @@
       <c r="T231" s="61"/>
       <c r="U231" s="61"/>
     </row>
-    <row r="232" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D232" s="61"/>
       <c r="E232" s="61"/>
       <c r="F232" s="61"/>
@@ -18421,7 +17847,7 @@
       <c r="T232" s="61"/>
       <c r="U232" s="61"/>
     </row>
-    <row r="233" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D233" s="61"/>
       <c r="E233" s="61"/>
       <c r="F233" s="61"/>
@@ -18440,7 +17866,7 @@
       <c r="T233" s="61"/>
       <c r="U233" s="61"/>
     </row>
-    <row r="234" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D234" s="61"/>
       <c r="E234" s="61"/>
       <c r="F234" s="61"/>
@@ -18459,7 +17885,7 @@
       <c r="T234" s="61"/>
       <c r="U234" s="61"/>
     </row>
-    <row r="235" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D235" s="61"/>
       <c r="E235" s="61"/>
       <c r="F235" s="61"/>
@@ -18478,7 +17904,7 @@
       <c r="T235" s="61"/>
       <c r="U235" s="61"/>
     </row>
-    <row r="236" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D236" s="61"/>
       <c r="E236" s="61"/>
       <c r="F236" s="61"/>
@@ -18501,7 +17927,7 @@
       <c r="BS236" s="61"/>
       <c r="BT236" s="61"/>
     </row>
-    <row r="237" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D237" s="61"/>
       <c r="E237" s="61"/>
       <c r="F237" s="61"/>
@@ -18524,7 +17950,7 @@
       <c r="BS237" s="61"/>
       <c r="BT237" s="61"/>
     </row>
-    <row r="238" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D238" s="61"/>
       <c r="E238" s="61"/>
       <c r="F238" s="61"/>
@@ -18547,7 +17973,7 @@
       <c r="BS238" s="61"/>
       <c r="BT238" s="61"/>
     </row>
-    <row r="239" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D239" s="61"/>
       <c r="E239" s="61"/>
       <c r="F239" s="61"/>
@@ -18570,7 +17996,7 @@
       <c r="BS239" s="61"/>
       <c r="BT239" s="61"/>
     </row>
-    <row r="240" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D240" s="61"/>
       <c r="E240" s="61"/>
       <c r="F240" s="61"/>
@@ -18593,7 +18019,7 @@
       <c r="BS240" s="61"/>
       <c r="BT240" s="61"/>
     </row>
-    <row r="241" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D241" s="61"/>
       <c r="E241" s="61"/>
       <c r="F241" s="61"/>
@@ -18616,7 +18042,7 @@
       <c r="BS241" s="61"/>
       <c r="BT241" s="61"/>
     </row>
-    <row r="242" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D242" s="61"/>
       <c r="E242" s="61"/>
       <c r="F242" s="61"/>
@@ -18639,7 +18065,7 @@
       <c r="BS242" s="61"/>
       <c r="BT242" s="61"/>
     </row>
-    <row r="243" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D243" s="61"/>
       <c r="E243" s="61"/>
       <c r="F243" s="61"/>
@@ -18662,7 +18088,7 @@
       <c r="BS243" s="61"/>
       <c r="BT243" s="61"/>
     </row>
-    <row r="244" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D244" s="61"/>
       <c r="E244" s="61"/>
       <c r="F244" s="61"/>
@@ -18681,7 +18107,7 @@
       <c r="T244" s="61"/>
       <c r="U244" s="61"/>
     </row>
-    <row r="245" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D245" s="61"/>
       <c r="E245" s="61"/>
       <c r="F245" s="61"/>
@@ -18700,7 +18126,7 @@
       <c r="T245" s="61"/>
       <c r="U245" s="61"/>
     </row>
-    <row r="246" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D246" s="61"/>
       <c r="E246" s="61"/>
       <c r="F246" s="61"/>
@@ -18719,7 +18145,7 @@
       <c r="T246" s="61"/>
       <c r="U246" s="61"/>
     </row>
-    <row r="247" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D247" s="61"/>
       <c r="E247" s="61"/>
       <c r="F247" s="61"/>
@@ -18738,7 +18164,7 @@
       <c r="T247" s="61"/>
       <c r="U247" s="61"/>
     </row>
-    <row r="248" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D248" s="61"/>
       <c r="E248" s="61"/>
       <c r="F248" s="61"/>
@@ -18757,7 +18183,7 @@
       <c r="T248" s="61"/>
       <c r="U248" s="61"/>
     </row>
-    <row r="249" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D249" s="61"/>
       <c r="E249" s="61"/>
       <c r="F249" s="61"/>
@@ -18776,7 +18202,7 @@
       <c r="T249" s="61"/>
       <c r="U249" s="61"/>
     </row>
-    <row r="250" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D250" s="61"/>
       <c r="E250" s="61"/>
       <c r="F250" s="61"/>
@@ -18795,7 +18221,7 @@
       <c r="T250" s="61"/>
       <c r="U250" s="61"/>
     </row>
-    <row r="251" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D251" s="61"/>
       <c r="E251" s="61"/>
       <c r="F251" s="61"/>
@@ -18814,7 +18240,7 @@
       <c r="T251" s="61"/>
       <c r="U251" s="61"/>
     </row>
-    <row r="252" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D252" s="61"/>
       <c r="E252" s="61"/>
       <c r="F252" s="61"/>
@@ -18833,7 +18259,7 @@
       <c r="T252" s="61"/>
       <c r="U252" s="61"/>
     </row>
-    <row r="253" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D253" s="61"/>
       <c r="E253" s="61"/>
       <c r="F253" s="61"/>
@@ -18852,7 +18278,7 @@
       <c r="T253" s="61"/>
       <c r="U253" s="61"/>
     </row>
-    <row r="254" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D254" s="61"/>
       <c r="E254" s="61"/>
       <c r="F254" s="61"/>
@@ -18871,7 +18297,7 @@
       <c r="T254" s="61"/>
       <c r="U254" s="61"/>
     </row>
-    <row r="255" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D255" s="61"/>
       <c r="E255" s="61"/>
       <c r="F255" s="61"/>
@@ -18894,7 +18320,7 @@
       <c r="BS255" s="61"/>
       <c r="BT255" s="61"/>
     </row>
-    <row r="256" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D256" s="61"/>
       <c r="E256" s="61"/>
       <c r="F256" s="61"/>
@@ -18917,7 +18343,7 @@
       <c r="BS256" s="61"/>
       <c r="BT256" s="61"/>
     </row>
-    <row r="257" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D257" s="61"/>
       <c r="E257" s="61"/>
       <c r="F257" s="61"/>
@@ -18940,7 +18366,7 @@
       <c r="BS257" s="61"/>
       <c r="BT257" s="61"/>
     </row>
-    <row r="258" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D258" s="61"/>
       <c r="E258" s="61"/>
       <c r="F258" s="61"/>
@@ -18963,7 +18389,7 @@
       <c r="BS258" s="61"/>
       <c r="BT258" s="61"/>
     </row>
-    <row r="259" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D259" s="61"/>
       <c r="E259" s="61"/>
       <c r="F259" s="61"/>
@@ -18986,7 +18412,7 @@
       <c r="BS259" s="61"/>
       <c r="BT259" s="61"/>
     </row>
-    <row r="260" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D260" s="61"/>
       <c r="E260" s="61"/>
       <c r="F260" s="61"/>
@@ -19009,7 +18435,7 @@
       <c r="BS260" s="61"/>
       <c r="BT260" s="61"/>
     </row>
-    <row r="261" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D261" s="61"/>
       <c r="E261" s="61"/>
       <c r="F261" s="61"/>
@@ -19032,7 +18458,7 @@
       <c r="BS261" s="61"/>
       <c r="BT261" s="61"/>
     </row>
-    <row r="262" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D262" s="61"/>
       <c r="E262" s="61"/>
       <c r="F262" s="61"/>
@@ -19055,7 +18481,7 @@
       <c r="BS262" s="61"/>
       <c r="BT262" s="61"/>
     </row>
-    <row r="263" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D263" s="61"/>
       <c r="E263" s="61"/>
       <c r="F263" s="61"/>
@@ -19078,7 +18504,7 @@
       <c r="BS263" s="61"/>
       <c r="BT263" s="61"/>
     </row>
-    <row r="264" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D264" s="61"/>
       <c r="E264" s="61"/>
       <c r="F264" s="61"/>
@@ -19101,7 +18527,7 @@
       <c r="BS264" s="61"/>
       <c r="BT264" s="61"/>
     </row>
-    <row r="265" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D265" s="61"/>
       <c r="E265" s="61"/>
       <c r="F265" s="61"/>
@@ -19124,7 +18550,7 @@
       <c r="BS265" s="61"/>
       <c r="BT265" s="61"/>
     </row>
-    <row r="266" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D266" s="61"/>
       <c r="E266" s="61"/>
       <c r="F266" s="61"/>
@@ -19147,7 +18573,7 @@
       <c r="BS266" s="61"/>
       <c r="BT266" s="61"/>
     </row>
-    <row r="267" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D267" s="61"/>
       <c r="E267" s="61"/>
       <c r="F267" s="61"/>
@@ -19170,7 +18596,7 @@
       <c r="BS267" s="61"/>
       <c r="BT267" s="61"/>
     </row>
-    <row r="268" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D268" s="61"/>
       <c r="E268" s="61"/>
       <c r="F268" s="61"/>
@@ -19193,7 +18619,7 @@
       <c r="BS268" s="61"/>
       <c r="BT268" s="61"/>
     </row>
-    <row r="269" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D269" s="61"/>
       <c r="E269" s="61"/>
       <c r="F269" s="61"/>
@@ -19216,7 +18642,7 @@
       <c r="BS269" s="61"/>
       <c r="BT269" s="61"/>
     </row>
-    <row r="270" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D270" s="61"/>
       <c r="E270" s="61"/>
       <c r="F270" s="61"/>
@@ -19239,7 +18665,7 @@
       <c r="BS270" s="61"/>
       <c r="BT270" s="61"/>
     </row>
-    <row r="271" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D271" s="61"/>
       <c r="E271" s="61"/>
       <c r="F271" s="61"/>
@@ -19262,7 +18688,7 @@
       <c r="BS271" s="61"/>
       <c r="BT271" s="61"/>
     </row>
-    <row r="272" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D272" s="61"/>
       <c r="E272" s="61"/>
       <c r="F272" s="61"/>
@@ -19285,7 +18711,7 @@
       <c r="BS272" s="61"/>
       <c r="BT272" s="61"/>
     </row>
-    <row r="273" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D273" s="61"/>
       <c r="E273" s="61"/>
       <c r="F273" s="61"/>
@@ -19308,7 +18734,7 @@
       <c r="BS273" s="61"/>
       <c r="BT273" s="61"/>
     </row>
-    <row r="274" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D274" s="61"/>
       <c r="E274" s="61"/>
       <c r="F274" s="61"/>
@@ -19331,7 +18757,7 @@
       <c r="BS274" s="61"/>
       <c r="BT274" s="61"/>
     </row>
-    <row r="275" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D275" s="61"/>
       <c r="E275" s="61"/>
       <c r="F275" s="61"/>
@@ -19354,7 +18780,7 @@
       <c r="BS275" s="61"/>
       <c r="BT275" s="61"/>
     </row>
-    <row r="276" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D276" s="61"/>
       <c r="E276" s="61"/>
       <c r="F276" s="61"/>
@@ -19373,7 +18799,7 @@
       <c r="T276" s="61"/>
       <c r="U276" s="61"/>
     </row>
-    <row r="277" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D277" s="61"/>
       <c r="E277" s="61"/>
       <c r="F277" s="61"/>
@@ -19392,7 +18818,7 @@
       <c r="T277" s="61"/>
       <c r="U277" s="61"/>
     </row>
-    <row r="278" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D278" s="61"/>
       <c r="E278" s="61"/>
       <c r="F278" s="61"/>
@@ -19411,7 +18837,7 @@
       <c r="T278" s="61"/>
       <c r="U278" s="61"/>
     </row>
-    <row r="279" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D279" s="61"/>
       <c r="E279" s="61"/>
       <c r="F279" s="61"/>
@@ -19430,7 +18856,7 @@
       <c r="T279" s="61"/>
       <c r="U279" s="61"/>
     </row>
-    <row r="280" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D280" s="61"/>
       <c r="E280" s="61"/>
       <c r="F280" s="61"/>
@@ -19449,7 +18875,7 @@
       <c r="T280" s="61"/>
       <c r="U280" s="61"/>
     </row>
-    <row r="281" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D281" s="61"/>
       <c r="E281" s="61"/>
       <c r="F281" s="61"/>
@@ -19468,7 +18894,7 @@
       <c r="T281" s="61"/>
       <c r="U281" s="61"/>
     </row>
-    <row r="282" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D282" s="61"/>
       <c r="E282" s="61"/>
       <c r="F282" s="61"/>
@@ -19487,7 +18913,7 @@
       <c r="T282" s="61"/>
       <c r="U282" s="61"/>
     </row>
-    <row r="283" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D283" s="61"/>
       <c r="E283" s="61"/>
       <c r="F283" s="61"/>
@@ -19506,7 +18932,7 @@
       <c r="T283" s="61"/>
       <c r="U283" s="61"/>
     </row>
-    <row r="284" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D284" s="61"/>
       <c r="E284" s="61"/>
       <c r="F284" s="61"/>
@@ -19525,7 +18951,7 @@
       <c r="T284" s="61"/>
       <c r="U284" s="61"/>
     </row>
-    <row r="285" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D285" s="61"/>
       <c r="E285" s="61"/>
       <c r="F285" s="61"/>
@@ -19544,7 +18970,7 @@
       <c r="T285" s="61"/>
       <c r="U285" s="61"/>
     </row>
-    <row r="286" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D286" s="61"/>
       <c r="E286" s="61"/>
       <c r="F286" s="61"/>
@@ -19563,7 +18989,7 @@
       <c r="T286" s="61"/>
       <c r="U286" s="61"/>
     </row>
-    <row r="287" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D287" s="61"/>
       <c r="E287" s="61"/>
       <c r="F287" s="61"/>
@@ -19586,7 +19012,7 @@
       <c r="BS287" s="61"/>
       <c r="BT287" s="61"/>
     </row>
-    <row r="288" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D288" s="61"/>
       <c r="E288" s="61"/>
       <c r="F288" s="61"/>
@@ -19609,7 +19035,7 @@
       <c r="BS288" s="61"/>
       <c r="BT288" s="61"/>
     </row>
-    <row r="289" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D289" s="61"/>
       <c r="E289" s="61"/>
       <c r="F289" s="61"/>
@@ -19632,7 +19058,7 @@
       <c r="BS289" s="61"/>
       <c r="BT289" s="61"/>
     </row>
-    <row r="290" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D290" s="61"/>
       <c r="E290" s="61"/>
       <c r="F290" s="61"/>
@@ -19655,7 +19081,7 @@
       <c r="BS290" s="61"/>
       <c r="BT290" s="61"/>
     </row>
-    <row r="291" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D291" s="61"/>
       <c r="E291" s="61"/>
       <c r="F291" s="61"/>
@@ -19678,7 +19104,7 @@
       <c r="BS291" s="61"/>
       <c r="BT291" s="61"/>
     </row>
-    <row r="292" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D292" s="61"/>
       <c r="E292" s="61"/>
       <c r="F292" s="61"/>
@@ -19701,7 +19127,7 @@
       <c r="BS292" s="61"/>
       <c r="BT292" s="61"/>
     </row>
-    <row r="293" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D293" s="61"/>
       <c r="E293" s="61"/>
       <c r="F293" s="61"/>
@@ -19724,7 +19150,7 @@
       <c r="BS293" s="61"/>
       <c r="BT293" s="61"/>
     </row>
-    <row r="294" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D294" s="61"/>
       <c r="E294" s="61"/>
       <c r="F294" s="61"/>
@@ -19747,7 +19173,7 @@
       <c r="BS294" s="61"/>
       <c r="BT294" s="61"/>
     </row>
-    <row r="295" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D295" s="61"/>
       <c r="E295" s="61"/>
       <c r="F295" s="61"/>
@@ -19770,7 +19196,7 @@
       <c r="BS295" s="61"/>
       <c r="BT295" s="61"/>
     </row>
-    <row r="296" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D296" s="61"/>
       <c r="E296" s="61"/>
       <c r="F296" s="61"/>
@@ -19793,7 +19219,7 @@
       <c r="BS296" s="61"/>
       <c r="BT296" s="61"/>
     </row>
-    <row r="297" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D297" s="61"/>
       <c r="E297" s="61"/>
       <c r="F297" s="61"/>
@@ -19816,7 +19242,7 @@
       <c r="BS297" s="61"/>
       <c r="BT297" s="61"/>
     </row>
-    <row r="298" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D298" s="61"/>
       <c r="E298" s="61"/>
       <c r="F298" s="61"/>
@@ -19839,7 +19265,7 @@
       <c r="BS298" s="61"/>
       <c r="BT298" s="61"/>
     </row>
-    <row r="299" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D299" s="61"/>
       <c r="E299" s="61"/>
       <c r="F299" s="61"/>
@@ -19862,7 +19288,7 @@
       <c r="BS299" s="61"/>
       <c r="BT299" s="61"/>
     </row>
-    <row r="300" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D300" s="61"/>
       <c r="E300" s="61"/>
       <c r="F300" s="61"/>
@@ -19885,7 +19311,7 @@
       <c r="BS300" s="61"/>
       <c r="BT300" s="61"/>
     </row>
-    <row r="301" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D301" s="61"/>
       <c r="E301" s="61"/>
       <c r="F301" s="61"/>
@@ -19908,7 +19334,7 @@
       <c r="BS301" s="61"/>
       <c r="BT301" s="61"/>
     </row>
-    <row r="302" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D302" s="61"/>
       <c r="E302" s="61"/>
       <c r="F302" s="61"/>
@@ -19931,7 +19357,7 @@
       <c r="BS302" s="61"/>
       <c r="BT302" s="61"/>
     </row>
-    <row r="303" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D303" s="61"/>
       <c r="E303" s="61"/>
       <c r="F303" s="61"/>
@@ -19954,7 +19380,7 @@
       <c r="BS303" s="61"/>
       <c r="BT303" s="61"/>
     </row>
-    <row r="304" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D304" s="61"/>
       <c r="E304" s="61"/>
       <c r="F304" s="61"/>
@@ -19977,7 +19403,7 @@
       <c r="BS304" s="61"/>
       <c r="BT304" s="61"/>
     </row>
-    <row r="305" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D305" s="61"/>
       <c r="E305" s="61"/>
       <c r="F305" s="61"/>
@@ -20000,7 +19426,7 @@
       <c r="BS305" s="61"/>
       <c r="BT305" s="61"/>
     </row>
-    <row r="306" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D306" s="61"/>
       <c r="E306" s="61"/>
       <c r="F306" s="61"/>
@@ -20023,7 +19449,7 @@
       <c r="BS306" s="61"/>
       <c r="BT306" s="61"/>
     </row>
-    <row r="307" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D307" s="61"/>
       <c r="E307" s="61"/>
       <c r="F307" s="61"/>
@@ -20046,7 +19472,7 @@
       <c r="BS307" s="61"/>
       <c r="BT307" s="61"/>
     </row>
-    <row r="308" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D308" s="61"/>
       <c r="E308" s="61"/>
       <c r="F308" s="61"/>
@@ -20065,7 +19491,7 @@
       <c r="T308" s="61"/>
       <c r="U308" s="61"/>
     </row>
-    <row r="309" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D309" s="61"/>
       <c r="E309" s="61"/>
       <c r="F309" s="61"/>
@@ -20084,7 +19510,7 @@
       <c r="T309" s="61"/>
       <c r="U309" s="61"/>
     </row>
-    <row r="310" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D310" s="61"/>
       <c r="E310" s="61"/>
       <c r="F310" s="61"/>
@@ -20103,7 +19529,7 @@
       <c r="T310" s="61"/>
       <c r="U310" s="61"/>
     </row>
-    <row r="311" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D311" s="61"/>
       <c r="E311" s="61"/>
       <c r="F311" s="61"/>
@@ -20122,7 +19548,7 @@
       <c r="T311" s="61"/>
       <c r="U311" s="61"/>
     </row>
-    <row r="312" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D312" s="61"/>
       <c r="E312" s="61"/>
       <c r="F312" s="61"/>
@@ -20141,7 +19567,7 @@
       <c r="T312" s="61"/>
       <c r="U312" s="61"/>
     </row>
-    <row r="313" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D313" s="61"/>
       <c r="E313" s="61"/>
       <c r="F313" s="61"/>
@@ -20160,7 +19586,7 @@
       <c r="T313" s="61"/>
       <c r="U313" s="61"/>
     </row>
-    <row r="314" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D314" s="61"/>
       <c r="E314" s="61"/>
       <c r="F314" s="61"/>
@@ -20179,7 +19605,7 @@
       <c r="T314" s="61"/>
       <c r="U314" s="61"/>
     </row>
-    <row r="315" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D315" s="61"/>
       <c r="E315" s="61"/>
       <c r="F315" s="61"/>
@@ -20198,7 +19624,7 @@
       <c r="T315" s="61"/>
       <c r="U315" s="61"/>
     </row>
-    <row r="316" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D316" s="61"/>
       <c r="E316" s="61"/>
       <c r="F316" s="61"/>
@@ -20217,7 +19643,7 @@
       <c r="T316" s="61"/>
       <c r="U316" s="61"/>
     </row>
-    <row r="317" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D317" s="61"/>
       <c r="E317" s="61"/>
       <c r="F317" s="61"/>
@@ -20236,7 +19662,7 @@
       <c r="T317" s="61"/>
       <c r="U317" s="61"/>
     </row>
-    <row r="318" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D318" s="61"/>
       <c r="E318" s="61"/>
       <c r="F318" s="61"/>
@@ -20255,7 +19681,7 @@
       <c r="T318" s="61"/>
       <c r="U318" s="61"/>
     </row>
-    <row r="319" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D319" s="61"/>
       <c r="E319" s="61"/>
       <c r="F319" s="61"/>
@@ -20274,7 +19700,7 @@
       <c r="T319" s="61"/>
       <c r="U319" s="61"/>
     </row>
-    <row r="320" spans="4:72" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:72" x14ac:dyDescent="0.55000000000000004">
       <c r="D320" s="61"/>
       <c r="E320" s="61"/>
       <c r="F320" s="61"/>
@@ -20293,7 +19719,7 @@
       <c r="T320" s="61"/>
       <c r="U320" s="61"/>
     </row>
-    <row r="321" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D321" s="61"/>
       <c r="E321" s="61"/>
       <c r="F321" s="61"/>
@@ -20312,7 +19738,7 @@
       <c r="T321" s="61"/>
       <c r="U321" s="61"/>
     </row>
-    <row r="322" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D322" s="61"/>
       <c r="E322" s="61"/>
       <c r="F322" s="61"/>
@@ -20331,7 +19757,7 @@
       <c r="T322" s="61"/>
       <c r="U322" s="61"/>
     </row>
-    <row r="323" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D323" s="61"/>
       <c r="E323" s="61"/>
       <c r="F323" s="61"/>
@@ -20350,7 +19776,7 @@
       <c r="T323" s="61"/>
       <c r="U323" s="61"/>
     </row>
-    <row r="324" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D324" s="61"/>
       <c r="E324" s="61"/>
       <c r="F324" s="61"/>
@@ -20369,7 +19795,7 @@
       <c r="T324" s="61"/>
       <c r="U324" s="61"/>
     </row>
-    <row r="325" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D325" s="61"/>
       <c r="E325" s="61"/>
       <c r="F325" s="61"/>
@@ -20388,7 +19814,7 @@
       <c r="T325" s="61"/>
       <c r="U325" s="61"/>
     </row>
-    <row r="326" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D326" s="61"/>
       <c r="E326" s="61"/>
       <c r="F326" s="61"/>
@@ -20407,7 +19833,7 @@
       <c r="T326" s="61"/>
       <c r="U326" s="61"/>
     </row>
-    <row r="327" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D327" s="61"/>
       <c r="E327" s="61"/>
       <c r="F327" s="61"/>
@@ -20426,7 +19852,7 @@
       <c r="T327" s="61"/>
       <c r="U327" s="61"/>
     </row>
-    <row r="328" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D328" s="61"/>
       <c r="E328" s="61"/>
       <c r="F328" s="61"/>
@@ -20445,7 +19871,7 @@
       <c r="T328" s="61"/>
       <c r="U328" s="61"/>
     </row>
-    <row r="329" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D329" s="61"/>
       <c r="E329" s="61"/>
       <c r="F329" s="61"/>
@@ -20464,7 +19890,7 @@
       <c r="T329" s="61"/>
       <c r="U329" s="61"/>
     </row>
-    <row r="330" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D330" s="61"/>
       <c r="E330" s="61"/>
       <c r="F330" s="61"/>
@@ -20483,7 +19909,7 @@
       <c r="T330" s="61"/>
       <c r="U330" s="61"/>
     </row>
-    <row r="331" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D331" s="61"/>
       <c r="E331" s="61"/>
       <c r="F331" s="61"/>
@@ -20502,7 +19928,7 @@
       <c r="T331" s="61"/>
       <c r="U331" s="61"/>
     </row>
-    <row r="332" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D332" s="61"/>
       <c r="E332" s="61"/>
       <c r="F332" s="61"/>
@@ -20521,7 +19947,7 @@
       <c r="T332" s="61"/>
       <c r="U332" s="61"/>
     </row>
-    <row r="333" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D333" s="61"/>
       <c r="E333" s="61"/>
       <c r="F333" s="61"/>
@@ -20540,7 +19966,7 @@
       <c r="T333" s="61"/>
       <c r="U333" s="61"/>
     </row>
-    <row r="334" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D334" s="61"/>
       <c r="E334" s="61"/>
       <c r="F334" s="61"/>
@@ -20559,7 +19985,7 @@
       <c r="T334" s="61"/>
       <c r="U334" s="61"/>
     </row>
-    <row r="335" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D335" s="61"/>
       <c r="E335" s="61"/>
       <c r="F335" s="61"/>
@@ -20578,7 +20004,7 @@
       <c r="T335" s="61"/>
       <c r="U335" s="61"/>
     </row>
-    <row r="336" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D336" s="61"/>
       <c r="E336" s="61"/>
       <c r="F336" s="61"/>
@@ -20597,7 +20023,7 @@
       <c r="T336" s="61"/>
       <c r="U336" s="61"/>
     </row>
-    <row r="337" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D337" s="61"/>
       <c r="E337" s="61"/>
       <c r="F337" s="61"/>
@@ -20616,7 +20042,7 @@
       <c r="T337" s="61"/>
       <c r="U337" s="61"/>
     </row>
-    <row r="338" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D338" s="61"/>
       <c r="E338" s="61"/>
       <c r="F338" s="61"/>
@@ -20635,7 +20061,7 @@
       <c r="T338" s="61"/>
       <c r="U338" s="61"/>
     </row>
-    <row r="339" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D339" s="61"/>
       <c r="E339" s="61"/>
       <c r="F339" s="61"/>
@@ -20654,7 +20080,7 @@
       <c r="T339" s="61"/>
       <c r="U339" s="61"/>
     </row>
-    <row r="340" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D340" s="61"/>
       <c r="E340" s="61"/>
       <c r="F340" s="61"/>
@@ -20673,7 +20099,7 @@
       <c r="T340" s="61"/>
       <c r="U340" s="61"/>
     </row>
-    <row r="341" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D341" s="61"/>
       <c r="E341" s="61"/>
       <c r="F341" s="61"/>
@@ -20692,7 +20118,7 @@
       <c r="T341" s="61"/>
       <c r="U341" s="61"/>
     </row>
-    <row r="342" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D342" s="61"/>
       <c r="E342" s="61"/>
       <c r="F342" s="61"/>
@@ -20711,7 +20137,7 @@
       <c r="T342" s="61"/>
       <c r="U342" s="61"/>
     </row>
-    <row r="343" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D343" s="61"/>
       <c r="E343" s="61"/>
       <c r="F343" s="61"/>
@@ -20730,7 +20156,7 @@
       <c r="T343" s="61"/>
       <c r="U343" s="61"/>
     </row>
-    <row r="344" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D344" s="61"/>
       <c r="E344" s="61"/>
       <c r="F344" s="61"/>
@@ -20749,7 +20175,7 @@
       <c r="T344" s="61"/>
       <c r="U344" s="61"/>
     </row>
-    <row r="345" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D345" s="61"/>
       <c r="E345" s="61"/>
       <c r="F345" s="61"/>
@@ -20768,7 +20194,7 @@
       <c r="T345" s="61"/>
       <c r="U345" s="61"/>
     </row>
-    <row r="346" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D346" s="61"/>
       <c r="E346" s="61"/>
       <c r="F346" s="61"/>
@@ -20787,7 +20213,7 @@
       <c r="T346" s="61"/>
       <c r="U346" s="61"/>
     </row>
-    <row r="347" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D347" s="61"/>
       <c r="E347" s="61"/>
       <c r="F347" s="61"/>
@@ -20806,7 +20232,7 @@
       <c r="T347" s="61"/>
       <c r="U347" s="61"/>
     </row>
-    <row r="348" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D348" s="61"/>
       <c r="E348" s="61"/>
       <c r="F348" s="61"/>
@@ -20825,7 +20251,7 @@
       <c r="T348" s="61"/>
       <c r="U348" s="61"/>
     </row>
-    <row r="349" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D349" s="61"/>
       <c r="E349" s="61"/>
       <c r="F349" s="61"/>
@@ -20844,7 +20270,7 @@
       <c r="T349" s="61"/>
       <c r="U349" s="61"/>
     </row>
-    <row r="350" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D350" s="61"/>
       <c r="E350" s="61"/>
       <c r="F350" s="61"/>
@@ -20863,7 +20289,7 @@
       <c r="T350" s="61"/>
       <c r="U350" s="61"/>
     </row>
-    <row r="351" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D351" s="61"/>
       <c r="E351" s="61"/>
       <c r="F351" s="61"/>
@@ -20882,7 +20308,7 @@
       <c r="T351" s="61"/>
       <c r="U351" s="61"/>
     </row>
-    <row r="352" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D352" s="61"/>
       <c r="E352" s="61"/>
       <c r="F352" s="61"/>
@@ -20901,7 +20327,7 @@
       <c r="T352" s="61"/>
       <c r="U352" s="61"/>
     </row>
-    <row r="353" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D353" s="61"/>
       <c r="E353" s="61"/>
       <c r="F353" s="61"/>
@@ -20920,7 +20346,7 @@
       <c r="T353" s="61"/>
       <c r="U353" s="61"/>
     </row>
-    <row r="354" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D354" s="61"/>
       <c r="E354" s="61"/>
       <c r="F354" s="61"/>
@@ -20939,7 +20365,7 @@
       <c r="T354" s="61"/>
       <c r="U354" s="61"/>
     </row>
-    <row r="355" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D355" s="61"/>
       <c r="E355" s="61"/>
       <c r="F355" s="61"/>
@@ -20958,7 +20384,7 @@
       <c r="T355" s="61"/>
       <c r="U355" s="61"/>
     </row>
-    <row r="356" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D356" s="61"/>
       <c r="E356" s="61"/>
       <c r="F356" s="61"/>
@@ -20977,7 +20403,7 @@
       <c r="T356" s="61"/>
       <c r="U356" s="61"/>
     </row>
-    <row r="357" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D357" s="61"/>
       <c r="E357" s="61"/>
       <c r="F357" s="61"/>
@@ -20996,7 +20422,7 @@
       <c r="T357" s="61"/>
       <c r="U357" s="61"/>
     </row>
-    <row r="358" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D358" s="61"/>
       <c r="E358" s="61"/>
       <c r="F358" s="61"/>
@@ -21015,7 +20441,7 @@
       <c r="T358" s="61"/>
       <c r="U358" s="61"/>
     </row>
-    <row r="359" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D359" s="61"/>
       <c r="E359" s="61"/>
       <c r="F359" s="61"/>
@@ -21034,7 +20460,7 @@
       <c r="T359" s="61"/>
       <c r="U359" s="61"/>
     </row>
-    <row r="360" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D360" s="61"/>
       <c r="E360" s="61"/>
       <c r="F360" s="61"/>
@@ -21053,7 +20479,7 @@
       <c r="T360" s="61"/>
       <c r="U360" s="61"/>
     </row>
-    <row r="361" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D361" s="61"/>
       <c r="E361" s="61"/>
       <c r="F361" s="61"/>
@@ -21072,7 +20498,7 @@
       <c r="T361" s="61"/>
       <c r="U361" s="61"/>
     </row>
-    <row r="362" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D362" s="61"/>
       <c r="E362" s="61"/>
       <c r="F362" s="61"/>
@@ -21091,7 +20517,7 @@
       <c r="T362" s="61"/>
       <c r="U362" s="61"/>
     </row>
-    <row r="363" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D363" s="61"/>
       <c r="E363" s="61"/>
       <c r="F363" s="61"/>
@@ -21110,7 +20536,7 @@
       <c r="T363" s="61"/>
       <c r="U363" s="61"/>
     </row>
-    <row r="364" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D364" s="61"/>
       <c r="E364" s="61"/>
       <c r="F364" s="61"/>
@@ -21129,7 +20555,7 @@
       <c r="T364" s="61"/>
       <c r="U364" s="61"/>
     </row>
-    <row r="365" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D365" s="61"/>
       <c r="E365" s="61"/>
       <c r="F365" s="61"/>
@@ -21148,7 +20574,7 @@
       <c r="T365" s="61"/>
       <c r="U365" s="61"/>
     </row>
-    <row r="366" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D366" s="61"/>
       <c r="E366" s="61"/>
       <c r="F366" s="61"/>
@@ -21167,7 +20593,7 @@
       <c r="T366" s="61"/>
       <c r="U366" s="61"/>
     </row>
-    <row r="367" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D367" s="61"/>
       <c r="E367" s="61"/>
       <c r="F367" s="61"/>
@@ -21186,7 +20612,7 @@
       <c r="T367" s="61"/>
       <c r="U367" s="61"/>
     </row>
-    <row r="368" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D368" s="61"/>
       <c r="E368" s="61"/>
       <c r="F368" s="61"/>
@@ -21205,7 +20631,7 @@
       <c r="T368" s="61"/>
       <c r="U368" s="61"/>
     </row>
-    <row r="369" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D369" s="61"/>
       <c r="E369" s="61"/>
       <c r="F369" s="61"/>
@@ -21224,7 +20650,7 @@
       <c r="T369" s="61"/>
       <c r="U369" s="61"/>
     </row>
-    <row r="370" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D370" s="61"/>
       <c r="E370" s="61"/>
       <c r="F370" s="61"/>
@@ -21243,7 +20669,7 @@
       <c r="T370" s="61"/>
       <c r="U370" s="61"/>
     </row>
-    <row r="371" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D371" s="61"/>
       <c r="E371" s="61"/>
       <c r="F371" s="61"/>
@@ -21262,7 +20688,7 @@
       <c r="T371" s="61"/>
       <c r="U371" s="61"/>
     </row>
-    <row r="372" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D372" s="61"/>
       <c r="E372" s="61"/>
       <c r="F372" s="61"/>
@@ -21281,7 +20707,7 @@
       <c r="T372" s="61"/>
       <c r="U372" s="61"/>
     </row>
-    <row r="373" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D373" s="61"/>
       <c r="E373" s="61"/>
       <c r="F373" s="61"/>
@@ -21300,7 +20726,7 @@
       <c r="T373" s="61"/>
       <c r="U373" s="61"/>
     </row>
-    <row r="374" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D374" s="61"/>
       <c r="E374" s="61"/>
       <c r="F374" s="61"/>
@@ -21319,7 +20745,7 @@
       <c r="T374" s="61"/>
       <c r="U374" s="61"/>
     </row>
-    <row r="375" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D375" s="61"/>
       <c r="E375" s="61"/>
       <c r="F375" s="61"/>
@@ -21338,7 +20764,7 @@
       <c r="T375" s="61"/>
       <c r="U375" s="61"/>
     </row>
-    <row r="376" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D376" s="61"/>
       <c r="E376" s="61"/>
       <c r="F376" s="61"/>
@@ -21357,7 +20783,7 @@
       <c r="T376" s="61"/>
       <c r="U376" s="61"/>
     </row>
-    <row r="377" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D377" s="61"/>
       <c r="E377" s="61"/>
       <c r="F377" s="61"/>
@@ -21376,7 +20802,7 @@
       <c r="T377" s="61"/>
       <c r="U377" s="61"/>
     </row>
-    <row r="378" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D378" s="61"/>
       <c r="E378" s="61"/>
       <c r="F378" s="61"/>
@@ -21395,7 +20821,7 @@
       <c r="T378" s="61"/>
       <c r="U378" s="61"/>
     </row>
-    <row r="379" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D379" s="61"/>
       <c r="E379" s="61"/>
       <c r="F379" s="61"/>
@@ -21414,7 +20840,7 @@
       <c r="T379" s="61"/>
       <c r="U379" s="61"/>
     </row>
-    <row r="380" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D380" s="61"/>
       <c r="E380" s="61"/>
       <c r="F380" s="61"/>
@@ -21433,7 +20859,7 @@
       <c r="T380" s="61"/>
       <c r="U380" s="61"/>
     </row>
-    <row r="381" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D381" s="61"/>
       <c r="E381" s="61"/>
       <c r="F381" s="61"/>
@@ -21452,7 +20878,7 @@
       <c r="T381" s="61"/>
       <c r="U381" s="61"/>
     </row>
-    <row r="382" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D382" s="61"/>
       <c r="E382" s="61"/>
       <c r="F382" s="61"/>
@@ -21471,7 +20897,7 @@
       <c r="T382" s="61"/>
       <c r="U382" s="61"/>
     </row>
-    <row r="383" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D383" s="61"/>
       <c r="E383" s="61"/>
       <c r="F383" s="61"/>
@@ -21490,7 +20916,7 @@
       <c r="T383" s="61"/>
       <c r="U383" s="61"/>
     </row>
-    <row r="384" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D384" s="61"/>
       <c r="E384" s="61"/>
       <c r="F384" s="61"/>
@@ -21509,7 +20935,7 @@
       <c r="T384" s="61"/>
       <c r="U384" s="61"/>
     </row>
-    <row r="385" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D385" s="61"/>
       <c r="E385" s="61"/>
       <c r="F385" s="61"/>
@@ -21528,7 +20954,7 @@
       <c r="T385" s="61"/>
       <c r="U385" s="61"/>
     </row>
-    <row r="386" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D386" s="61"/>
       <c r="E386" s="61"/>
       <c r="F386" s="61"/>
@@ -21547,7 +20973,7 @@
       <c r="T386" s="61"/>
       <c r="U386" s="61"/>
     </row>
-    <row r="387" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D387" s="61"/>
       <c r="E387" s="61"/>
       <c r="F387" s="61"/>
@@ -21566,7 +20992,7 @@
       <c r="T387" s="61"/>
       <c r="U387" s="61"/>
     </row>
-    <row r="388" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D388" s="61"/>
       <c r="E388" s="61"/>
       <c r="F388" s="61"/>
@@ -21585,7 +21011,7 @@
       <c r="T388" s="61"/>
       <c r="U388" s="61"/>
     </row>
-    <row r="389" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D389" s="61"/>
       <c r="E389" s="61"/>
       <c r="F389" s="61"/>
@@ -21604,7 +21030,7 @@
       <c r="T389" s="61"/>
       <c r="U389" s="61"/>
     </row>
-    <row r="390" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D390" s="61"/>
       <c r="E390" s="61"/>
       <c r="F390" s="61"/>
@@ -21623,7 +21049,7 @@
       <c r="T390" s="61"/>
       <c r="U390" s="61"/>
     </row>
-    <row r="391" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D391" s="61"/>
       <c r="E391" s="61"/>
       <c r="F391" s="61"/>
@@ -21642,7 +21068,7 @@
       <c r="T391" s="61"/>
       <c r="U391" s="61"/>
     </row>
-    <row r="392" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D392" s="61"/>
       <c r="E392" s="61"/>
       <c r="F392" s="61"/>
@@ -21661,7 +21087,7 @@
       <c r="T392" s="61"/>
       <c r="U392" s="61"/>
     </row>
-    <row r="393" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D393" s="61"/>
       <c r="E393" s="61"/>
       <c r="F393" s="61"/>
@@ -21680,7 +21106,7 @@
       <c r="T393" s="61"/>
       <c r="U393" s="61"/>
     </row>
-    <row r="394" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D394" s="61"/>
       <c r="E394" s="61"/>
       <c r="F394" s="61"/>
@@ -21699,7 +21125,7 @@
       <c r="T394" s="61"/>
       <c r="U394" s="61"/>
     </row>
-    <row r="395" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D395" s="61"/>
       <c r="E395" s="61"/>
       <c r="F395" s="61"/>
@@ -21718,7 +21144,7 @@
       <c r="T395" s="61"/>
       <c r="U395" s="61"/>
     </row>
-    <row r="396" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D396" s="61"/>
       <c r="E396" s="61"/>
       <c r="F396" s="61"/>
@@ -21737,7 +21163,7 @@
       <c r="T396" s="61"/>
       <c r="U396" s="61"/>
     </row>
-    <row r="397" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D397" s="61"/>
       <c r="E397" s="61"/>
       <c r="F397" s="61"/>
@@ -21756,7 +21182,7 @@
       <c r="T397" s="61"/>
       <c r="U397" s="61"/>
     </row>
-    <row r="398" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D398" s="61"/>
       <c r="E398" s="61"/>
       <c r="F398" s="61"/>
@@ -21775,7 +21201,7 @@
       <c r="T398" s="61"/>
       <c r="U398" s="61"/>
     </row>
-    <row r="399" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D399" s="61"/>
       <c r="E399" s="61"/>
       <c r="F399" s="61"/>
@@ -21794,7 +21220,7 @@
       <c r="T399" s="61"/>
       <c r="U399" s="61"/>
     </row>
-    <row r="400" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D400" s="61"/>
       <c r="E400" s="61"/>
       <c r="F400" s="61"/>
@@ -21813,7 +21239,7 @@
       <c r="T400" s="61"/>
       <c r="U400" s="61"/>
     </row>
-    <row r="401" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D401" s="61"/>
       <c r="E401" s="61"/>
       <c r="F401" s="61"/>
@@ -21832,7 +21258,7 @@
       <c r="T401" s="61"/>
       <c r="U401" s="61"/>
     </row>
-    <row r="402" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D402" s="61"/>
       <c r="E402" s="61"/>
       <c r="F402" s="61"/>
@@ -21851,7 +21277,7 @@
       <c r="T402" s="61"/>
       <c r="U402" s="61"/>
     </row>
-    <row r="403" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D403" s="61"/>
       <c r="E403" s="61"/>
       <c r="F403" s="61"/>
@@ -21870,7 +21296,7 @@
       <c r="T403" s="61"/>
       <c r="U403" s="61"/>
     </row>
-    <row r="404" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D404" s="61"/>
       <c r="E404" s="61"/>
       <c r="F404" s="61"/>
@@ -21889,7 +21315,7 @@
       <c r="T404" s="61"/>
       <c r="U404" s="61"/>
     </row>
-    <row r="405" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D405" s="61"/>
       <c r="E405" s="61"/>
       <c r="F405" s="61"/>
@@ -21908,7 +21334,7 @@
       <c r="T405" s="61"/>
       <c r="U405" s="61"/>
     </row>
-    <row r="406" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D406" s="61"/>
       <c r="E406" s="61"/>
       <c r="F406" s="61"/>
@@ -21927,7 +21353,7 @@
       <c r="T406" s="61"/>
       <c r="U406" s="61"/>
     </row>
-    <row r="407" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D407" s="61"/>
       <c r="E407" s="61"/>
       <c r="F407" s="61"/>
@@ -21946,7 +21372,7 @@
       <c r="T407" s="61"/>
       <c r="U407" s="61"/>
     </row>
-    <row r="408" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D408" s="61"/>
       <c r="E408" s="61"/>
       <c r="F408" s="61"/>
@@ -21965,7 +21391,7 @@
       <c r="T408" s="61"/>
       <c r="U408" s="61"/>
     </row>
-    <row r="409" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D409" s="61"/>
       <c r="E409" s="61"/>
       <c r="F409" s="61"/>
@@ -21984,7 +21410,7 @@
       <c r="T409" s="61"/>
       <c r="U409" s="61"/>
     </row>
-    <row r="410" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D410" s="61"/>
       <c r="E410" s="61"/>
       <c r="F410" s="61"/>
@@ -22003,7 +21429,7 @@
       <c r="T410" s="61"/>
       <c r="U410" s="61"/>
     </row>
-    <row r="411" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D411" s="61"/>
       <c r="E411" s="61"/>
       <c r="F411" s="61"/>
@@ -22022,7 +21448,7 @@
       <c r="T411" s="61"/>
       <c r="U411" s="61"/>
     </row>
-    <row r="412" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D412" s="61"/>
       <c r="E412" s="61"/>
       <c r="F412" s="61"/>
@@ -22041,7 +21467,7 @@
       <c r="T412" s="61"/>
       <c r="U412" s="61"/>
     </row>
-    <row r="413" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D413" s="61"/>
       <c r="E413" s="61"/>
       <c r="F413" s="61"/>
@@ -22060,7 +21486,7 @@
       <c r="T413" s="61"/>
       <c r="U413" s="61"/>
     </row>
-    <row r="414" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D414" s="61"/>
       <c r="E414" s="61"/>
       <c r="F414" s="61"/>
@@ -22079,7 +21505,7 @@
       <c r="T414" s="61"/>
       <c r="U414" s="61"/>
     </row>
-    <row r="415" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D415" s="61"/>
       <c r="E415" s="61"/>
       <c r="F415" s="61"/>
@@ -22098,7 +21524,7 @@
       <c r="T415" s="61"/>
       <c r="U415" s="61"/>
     </row>
-    <row r="416" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D416" s="61"/>
       <c r="E416" s="61"/>
       <c r="F416" s="61"/>
@@ -22117,7 +21543,7 @@
       <c r="T416" s="61"/>
       <c r="U416" s="61"/>
     </row>
-    <row r="417" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D417" s="61"/>
       <c r="E417" s="61"/>
       <c r="F417" s="61"/>
@@ -22136,7 +21562,7 @@
       <c r="T417" s="61"/>
       <c r="U417" s="61"/>
     </row>
-    <row r="418" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D418" s="61"/>
       <c r="E418" s="61"/>
       <c r="F418" s="61"/>
@@ -22155,7 +21581,7 @@
       <c r="T418" s="61"/>
       <c r="U418" s="61"/>
     </row>
-    <row r="419" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D419" s="61"/>
       <c r="E419" s="61"/>
       <c r="F419" s="61"/>
@@ -22174,7 +21600,7 @@
       <c r="T419" s="61"/>
       <c r="U419" s="61"/>
     </row>
-    <row r="420" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D420" s="61"/>
       <c r="E420" s="61"/>
       <c r="F420" s="61"/>
@@ -22193,7 +21619,7 @@
       <c r="T420" s="61"/>
       <c r="U420" s="61"/>
     </row>
-    <row r="421" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D421" s="61"/>
       <c r="E421" s="61"/>
       <c r="F421" s="61"/>
@@ -22212,7 +21638,7 @@
       <c r="T421" s="61"/>
       <c r="U421" s="61"/>
     </row>
-    <row r="422" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D422" s="61"/>
       <c r="E422" s="61"/>
       <c r="F422" s="61"/>
@@ -22231,7 +21657,7 @@
       <c r="T422" s="61"/>
       <c r="U422" s="61"/>
     </row>
-    <row r="423" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D423" s="61"/>
       <c r="E423" s="61"/>
       <c r="F423" s="61"/>
@@ -22250,7 +21676,7 @@
       <c r="T423" s="61"/>
       <c r="U423" s="61"/>
     </row>
-    <row r="424" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D424" s="61"/>
       <c r="E424" s="61"/>
       <c r="F424" s="61"/>
@@ -22269,7 +21695,7 @@
       <c r="T424" s="61"/>
       <c r="U424" s="61"/>
     </row>
-    <row r="425" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D425" s="61"/>
       <c r="E425" s="61"/>
       <c r="F425" s="61"/>
@@ -22288,7 +21714,7 @@
       <c r="T425" s="61"/>
       <c r="U425" s="61"/>
     </row>
-    <row r="426" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D426" s="61"/>
       <c r="E426" s="61"/>
       <c r="F426" s="61"/>
@@ -22307,7 +21733,7 @@
       <c r="T426" s="61"/>
       <c r="U426" s="61"/>
     </row>
-    <row r="427" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D427" s="61"/>
       <c r="E427" s="61"/>
       <c r="F427" s="61"/>
@@ -22326,7 +21752,7 @@
       <c r="T427" s="61"/>
       <c r="U427" s="61"/>
     </row>
-    <row r="428" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D428" s="61"/>
       <c r="E428" s="61"/>
       <c r="F428" s="61"/>
@@ -22345,7 +21771,7 @@
       <c r="T428" s="61"/>
       <c r="U428" s="61"/>
     </row>
-    <row r="429" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D429" s="61"/>
       <c r="E429" s="61"/>
       <c r="F429" s="61"/>
@@ -22364,7 +21790,7 @@
       <c r="T429" s="61"/>
       <c r="U429" s="61"/>
     </row>
-    <row r="430" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D430" s="61"/>
       <c r="E430" s="61"/>
       <c r="F430" s="61"/>
@@ -22383,7 +21809,7 @@
       <c r="T430" s="61"/>
       <c r="U430" s="61"/>
     </row>
-    <row r="431" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D431" s="61"/>
       <c r="E431" s="61"/>
       <c r="F431" s="61"/>
@@ -22402,7 +21828,7 @@
       <c r="T431" s="61"/>
       <c r="U431" s="61"/>
     </row>
-    <row r="432" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D432" s="61"/>
       <c r="E432" s="61"/>
       <c r="F432" s="61"/>
@@ -22421,7 +21847,7 @@
       <c r="T432" s="61"/>
       <c r="U432" s="61"/>
     </row>
-    <row r="433" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D433" s="61"/>
       <c r="E433" s="61"/>
       <c r="F433" s="61"/>
@@ -22440,7 +21866,7 @@
       <c r="T433" s="61"/>
       <c r="U433" s="61"/>
     </row>
-    <row r="434" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D434" s="61"/>
       <c r="E434" s="61"/>
       <c r="F434" s="61"/>
@@ -22459,7 +21885,7 @@
       <c r="T434" s="61"/>
       <c r="U434" s="61"/>
     </row>
-    <row r="435" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D435" s="61"/>
       <c r="E435" s="61"/>
       <c r="F435" s="61"/>
@@ -22478,7 +21904,7 @@
       <c r="T435" s="61"/>
       <c r="U435" s="61"/>
     </row>
-    <row r="436" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D436" s="61"/>
       <c r="E436" s="61"/>
       <c r="F436" s="61"/>
@@ -22497,7 +21923,7 @@
       <c r="T436" s="61"/>
       <c r="U436" s="61"/>
     </row>
-    <row r="437" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D437" s="61"/>
       <c r="E437" s="61"/>
       <c r="F437" s="61"/>
@@ -22516,7 +21942,7 @@
       <c r="T437" s="61"/>
       <c r="U437" s="61"/>
     </row>
-    <row r="438" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D438" s="61"/>
       <c r="E438" s="61"/>
       <c r="F438" s="61"/>
@@ -22535,7 +21961,7 @@
       <c r="T438" s="61"/>
       <c r="U438" s="61"/>
     </row>
-    <row r="439" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D439" s="61"/>
       <c r="E439" s="61"/>
       <c r="F439" s="61"/>
@@ -22554,7 +21980,7 @@
       <c r="T439" s="61"/>
       <c r="U439" s="61"/>
     </row>
-    <row r="440" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D440" s="61"/>
       <c r="E440" s="61"/>
       <c r="F440" s="61"/>
@@ -22573,7 +21999,7 @@
       <c r="T440" s="61"/>
       <c r="U440" s="61"/>
     </row>
-    <row r="441" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D441" s="61"/>
       <c r="E441" s="61"/>
       <c r="F441" s="61"/>
@@ -22592,7 +22018,7 @@
       <c r="T441" s="61"/>
       <c r="U441" s="61"/>
     </row>
-    <row r="442" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D442" s="61"/>
       <c r="E442" s="61"/>
       <c r="F442" s="61"/>
@@ -22611,7 +22037,7 @@
       <c r="T442" s="61"/>
       <c r="U442" s="61"/>
     </row>
-    <row r="443" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D443" s="61"/>
       <c r="E443" s="61"/>
       <c r="F443" s="61"/>
@@ -22630,7 +22056,7 @@
       <c r="T443" s="61"/>
       <c r="U443" s="61"/>
     </row>
-    <row r="444" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D444" s="61"/>
       <c r="E444" s="61"/>
       <c r="F444" s="61"/>
@@ -22649,7 +22075,7 @@
       <c r="T444" s="61"/>
       <c r="U444" s="61"/>
     </row>
-    <row r="445" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D445" s="61"/>
       <c r="E445" s="61"/>
       <c r="F445" s="61"/>
@@ -22668,7 +22094,7 @@
       <c r="T445" s="61"/>
       <c r="U445" s="61"/>
     </row>
-    <row r="446" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D446" s="61"/>
       <c r="E446" s="61"/>
       <c r="F446" s="61"/>
@@ -22687,7 +22113,7 @@
       <c r="T446" s="61"/>
       <c r="U446" s="61"/>
     </row>
-    <row r="447" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D447" s="61"/>
       <c r="E447" s="61"/>
       <c r="F447" s="61"/>
@@ -22706,7 +22132,7 @@
       <c r="T447" s="61"/>
       <c r="U447" s="61"/>
     </row>
-    <row r="448" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D448" s="61"/>
       <c r="E448" s="61"/>
       <c r="F448" s="61"/>
@@ -22725,7 +22151,7 @@
       <c r="T448" s="61"/>
       <c r="U448" s="61"/>
     </row>
-    <row r="449" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D449" s="61"/>
       <c r="E449" s="61"/>
       <c r="F449" s="61"/>
@@ -22744,7 +22170,7 @@
       <c r="T449" s="61"/>
       <c r="U449" s="61"/>
     </row>
-    <row r="450" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D450" s="61"/>
       <c r="E450" s="61"/>
       <c r="F450" s="61"/>
@@ -22763,7 +22189,7 @@
       <c r="T450" s="61"/>
       <c r="U450" s="61"/>
     </row>
-    <row r="451" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D451" s="61"/>
       <c r="E451" s="61"/>
       <c r="F451" s="61"/>
@@ -22782,7 +22208,7 @@
       <c r="T451" s="61"/>
       <c r="U451" s="61"/>
     </row>
-    <row r="452" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D452" s="61"/>
       <c r="E452" s="61"/>
       <c r="F452" s="61"/>
@@ -22801,7 +22227,7 @@
       <c r="T452" s="61"/>
       <c r="U452" s="61"/>
     </row>
-    <row r="453" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D453" s="61"/>
       <c r="E453" s="61"/>
       <c r="F453" s="61"/>
@@ -22820,7 +22246,7 @@
       <c r="T453" s="61"/>
       <c r="U453" s="61"/>
     </row>
-    <row r="454" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D454" s="61"/>
       <c r="E454" s="61"/>
       <c r="F454" s="61"/>
@@ -22839,7 +22265,7 @@
       <c r="T454" s="61"/>
       <c r="U454" s="61"/>
     </row>
-    <row r="455" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D455" s="61"/>
       <c r="E455" s="61"/>
       <c r="F455" s="61"/>
@@ -22858,7 +22284,7 @@
       <c r="T455" s="61"/>
       <c r="U455" s="61"/>
     </row>
-    <row r="456" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D456" s="61"/>
       <c r="E456" s="61"/>
       <c r="F456" s="61"/>
@@ -22877,7 +22303,7 @@
       <c r="T456" s="61"/>
       <c r="U456" s="61"/>
     </row>
-    <row r="457" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D457" s="61"/>
       <c r="E457" s="61"/>
       <c r="F457" s="61"/>
@@ -22896,7 +22322,7 @@
       <c r="T457" s="61"/>
       <c r="U457" s="61"/>
     </row>
-    <row r="458" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D458" s="61"/>
       <c r="E458" s="61"/>
       <c r="F458" s="61"/>
@@ -22915,7 +22341,7 @@
       <c r="T458" s="61"/>
       <c r="U458" s="61"/>
     </row>
-    <row r="459" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D459" s="61"/>
       <c r="E459" s="61"/>
       <c r="F459" s="61"/>
@@ -22934,7 +22360,7 @@
       <c r="T459" s="61"/>
       <c r="U459" s="61"/>
     </row>
-    <row r="460" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D460" s="61"/>
       <c r="E460" s="61"/>
       <c r="F460" s="61"/>
@@ -22953,7 +22379,7 @@
       <c r="T460" s="61"/>
       <c r="U460" s="61"/>
     </row>
-    <row r="461" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D461" s="61"/>
       <c r="E461" s="61"/>
       <c r="F461" s="61"/>
@@ -22972,7 +22398,7 @@
       <c r="T461" s="61"/>
       <c r="U461" s="61"/>
     </row>
-    <row r="462" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D462" s="61"/>
       <c r="E462" s="61"/>
       <c r="F462" s="61"/>
@@ -22991,7 +22417,7 @@
       <c r="T462" s="61"/>
       <c r="U462" s="61"/>
     </row>
-    <row r="463" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D463" s="61"/>
       <c r="E463" s="61"/>
       <c r="F463" s="61"/>
@@ -23010,7 +22436,7 @@
       <c r="T463" s="61"/>
       <c r="U463" s="61"/>
     </row>
-    <row r="464" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D464" s="61"/>
       <c r="E464" s="61"/>
       <c r="F464" s="61"/>
@@ -23029,7 +22455,7 @@
       <c r="T464" s="61"/>
       <c r="U464" s="61"/>
     </row>
-    <row r="465" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D465" s="61"/>
       <c r="E465" s="61"/>
       <c r="F465" s="61"/>
@@ -23048,7 +22474,7 @@
       <c r="T465" s="61"/>
       <c r="U465" s="61"/>
     </row>
-    <row r="466" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D466" s="61"/>
       <c r="E466" s="61"/>
       <c r="F466" s="61"/>
@@ -23067,7 +22493,7 @@
       <c r="T466" s="61"/>
       <c r="U466" s="61"/>
     </row>
-    <row r="467" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D467" s="61"/>
       <c r="E467" s="61"/>
       <c r="F467" s="61"/>
@@ -23086,7 +22512,7 @@
       <c r="T467" s="61"/>
       <c r="U467" s="61"/>
     </row>
-    <row r="468" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D468" s="61"/>
       <c r="E468" s="61"/>
       <c r="F468" s="61"/>
@@ -23105,7 +22531,7 @@
       <c r="T468" s="61"/>
       <c r="U468" s="61"/>
     </row>
-    <row r="469" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D469" s="61"/>
       <c r="E469" s="61"/>
       <c r="F469" s="61"/>
@@ -23124,7 +22550,7 @@
       <c r="T469" s="61"/>
       <c r="U469" s="61"/>
     </row>
-    <row r="470" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D470" s="61"/>
       <c r="E470" s="61"/>
       <c r="F470" s="61"/>
@@ -23143,7 +22569,7 @@
       <c r="T470" s="61"/>
       <c r="U470" s="61"/>
     </row>
-    <row r="471" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D471" s="61"/>
       <c r="E471" s="61"/>
       <c r="F471" s="61"/>
@@ -23162,7 +22588,7 @@
       <c r="T471" s="61"/>
       <c r="U471" s="61"/>
     </row>
-    <row r="472" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D472" s="61"/>
       <c r="E472" s="61"/>
       <c r="F472" s="61"/>
@@ -23181,7 +22607,7 @@
       <c r="T472" s="61"/>
       <c r="U472" s="61"/>
     </row>
-    <row r="473" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D473" s="61"/>
       <c r="E473" s="61"/>
       <c r="F473" s="61"/>
@@ -23200,7 +22626,7 @@
       <c r="T473" s="61"/>
       <c r="U473" s="61"/>
     </row>
-    <row r="474" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D474" s="61"/>
       <c r="E474" s="61"/>
       <c r="F474" s="61"/>
@@ -23219,7 +22645,7 @@
       <c r="T474" s="61"/>
       <c r="U474" s="61"/>
     </row>
-    <row r="475" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D475" s="61"/>
       <c r="E475" s="61"/>
       <c r="F475" s="61"/>
@@ -23238,7 +22664,7 @@
       <c r="T475" s="61"/>
       <c r="U475" s="61"/>
     </row>
-    <row r="476" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D476" s="61"/>
       <c r="E476" s="61"/>
       <c r="F476" s="61"/>
@@ -23257,7 +22683,7 @@
       <c r="T476" s="61"/>
       <c r="U476" s="61"/>
     </row>
-    <row r="477" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D477" s="61"/>
       <c r="E477" s="61"/>
       <c r="F477" s="61"/>
@@ -23276,7 +22702,7 @@
       <c r="T477" s="61"/>
       <c r="U477" s="61"/>
     </row>
-    <row r="478" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D478" s="61"/>
       <c r="E478" s="61"/>
       <c r="F478" s="61"/>
@@ -23295,7 +22721,7 @@
       <c r="T478" s="61"/>
       <c r="U478" s="61"/>
     </row>
-    <row r="479" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D479" s="61"/>
       <c r="E479" s="61"/>
       <c r="F479" s="61"/>
@@ -23314,7 +22740,7 @@
       <c r="T479" s="61"/>
       <c r="U479" s="61"/>
     </row>
-    <row r="480" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D480" s="61"/>
       <c r="E480" s="61"/>
       <c r="F480" s="61"/>
@@ -23333,7 +22759,7 @@
       <c r="T480" s="61"/>
       <c r="U480" s="61"/>
     </row>
-    <row r="481" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D481" s="61"/>
       <c r="E481" s="61"/>
       <c r="F481" s="61"/>
@@ -23352,7 +22778,7 @@
       <c r="T481" s="61"/>
       <c r="U481" s="61"/>
     </row>
-    <row r="482" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D482" s="61"/>
       <c r="E482" s="61"/>
       <c r="F482" s="61"/>
@@ -23371,7 +22797,7 @@
       <c r="T482" s="61"/>
       <c r="U482" s="61"/>
     </row>
-    <row r="483" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D483" s="61"/>
       <c r="E483" s="61"/>
       <c r="F483" s="61"/>
@@ -23390,7 +22816,7 @@
       <c r="T483" s="61"/>
       <c r="U483" s="61"/>
     </row>
-    <row r="484" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D484" s="61"/>
       <c r="E484" s="61"/>
       <c r="F484" s="61"/>
@@ -23409,7 +22835,7 @@
       <c r="T484" s="61"/>
       <c r="U484" s="61"/>
     </row>
-    <row r="485" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D485" s="61"/>
       <c r="E485" s="61"/>
       <c r="F485" s="61"/>
@@ -23428,7 +22854,7 @@
       <c r="T485" s="61"/>
       <c r="U485" s="61"/>
     </row>
-    <row r="486" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D486" s="61"/>
       <c r="E486" s="61"/>
       <c r="F486" s="61"/>
@@ -23447,7 +22873,7 @@
       <c r="T486" s="61"/>
       <c r="U486" s="61"/>
     </row>
-    <row r="487" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D487" s="61"/>
       <c r="E487" s="61"/>
       <c r="F487" s="61"/>
@@ -23466,7 +22892,7 @@
       <c r="T487" s="61"/>
       <c r="U487" s="61"/>
     </row>
-    <row r="488" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D488" s="61"/>
       <c r="E488" s="61"/>
       <c r="F488" s="61"/>
@@ -23485,7 +22911,7 @@
       <c r="T488" s="61"/>
       <c r="U488" s="61"/>
     </row>
-    <row r="489" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D489" s="61"/>
       <c r="E489" s="61"/>
       <c r="F489" s="61"/>
@@ -23504,7 +22930,7 @@
       <c r="T489" s="61"/>
       <c r="U489" s="61"/>
     </row>
-    <row r="490" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D490" s="61"/>
       <c r="E490" s="61"/>
       <c r="F490" s="61"/>
@@ -23523,7 +22949,7 @@
       <c r="T490" s="61"/>
       <c r="U490" s="61"/>
     </row>
-    <row r="491" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D491" s="61"/>
       <c r="E491" s="61"/>
       <c r="F491" s="61"/>
@@ -23542,7 +22968,7 @@
       <c r="T491" s="61"/>
       <c r="U491" s="61"/>
     </row>
-    <row r="492" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D492" s="61"/>
       <c r="E492" s="61"/>
       <c r="F492" s="61"/>
@@ -23561,7 +22987,7 @@
       <c r="T492" s="61"/>
       <c r="U492" s="61"/>
     </row>
-    <row r="493" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D493" s="61"/>
       <c r="E493" s="61"/>
       <c r="F493" s="61"/>
@@ -23580,7 +23006,7 @@
       <c r="T493" s="61"/>
       <c r="U493" s="61"/>
     </row>
-    <row r="494" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D494" s="61"/>
       <c r="E494" s="61"/>
       <c r="F494" s="61"/>
@@ -23599,7 +23025,7 @@
       <c r="T494" s="61"/>
       <c r="U494" s="61"/>
     </row>
-    <row r="495" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D495" s="61"/>
       <c r="E495" s="61"/>
       <c r="F495" s="61"/>
@@ -23618,7 +23044,7 @@
       <c r="T495" s="61"/>
       <c r="U495" s="61"/>
     </row>
-    <row r="496" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D496" s="61"/>
       <c r="E496" s="61"/>
       <c r="F496" s="61"/>
@@ -23637,7 +23063,7 @@
       <c r="T496" s="61"/>
       <c r="U496" s="61"/>
     </row>
-    <row r="497" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D497" s="61"/>
       <c r="E497" s="61"/>
       <c r="F497" s="61"/>
@@ -23656,7 +23082,7 @@
       <c r="T497" s="61"/>
       <c r="U497" s="61"/>
     </row>
-    <row r="498" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D498" s="61"/>
       <c r="E498" s="61"/>
       <c r="F498" s="61"/>
@@ -23675,7 +23101,7 @@
       <c r="T498" s="61"/>
       <c r="U498" s="61"/>
     </row>
-    <row r="499" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D499" s="61"/>
       <c r="E499" s="61"/>
       <c r="F499" s="61"/>
@@ -23694,7 +23120,7 @@
       <c r="T499" s="61"/>
       <c r="U499" s="61"/>
     </row>
-    <row r="500" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D500" s="61"/>
       <c r="E500" s="61"/>
       <c r="F500" s="61"/>
@@ -23713,7 +23139,7 @@
       <c r="T500" s="61"/>
       <c r="U500" s="61"/>
     </row>
-    <row r="501" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D501" s="61"/>
       <c r="E501" s="61"/>
       <c r="F501" s="61"/>
@@ -23732,7 +23158,7 @@
       <c r="T501" s="61"/>
       <c r="U501" s="61"/>
     </row>
-    <row r="502" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D502" s="61"/>
       <c r="E502" s="61"/>
       <c r="F502" s="61"/>
@@ -23751,7 +23177,7 @@
       <c r="T502" s="61"/>
       <c r="U502" s="61"/>
     </row>
-    <row r="503" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D503" s="61"/>
       <c r="E503" s="61"/>
       <c r="F503" s="61"/>
@@ -23770,7 +23196,7 @@
       <c r="T503" s="61"/>
       <c r="U503" s="61"/>
     </row>
-    <row r="504" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D504" s="61"/>
       <c r="E504" s="61"/>
       <c r="F504" s="61"/>
@@ -23789,7 +23215,7 @@
       <c r="T504" s="61"/>
       <c r="U504" s="61"/>
     </row>
-    <row r="505" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D505" s="61"/>
       <c r="E505" s="61"/>
       <c r="F505" s="61"/>
@@ -23808,7 +23234,7 @@
       <c r="T505" s="61"/>
       <c r="U505" s="61"/>
     </row>
-    <row r="506" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D506" s="61"/>
       <c r="E506" s="61"/>
       <c r="F506" s="61"/>
@@ -23827,7 +23253,7 @@
       <c r="T506" s="61"/>
       <c r="U506" s="61"/>
     </row>
-    <row r="507" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D507" s="61"/>
       <c r="E507" s="61"/>
       <c r="F507" s="61"/>
@@ -23846,7 +23272,7 @@
       <c r="T507" s="61"/>
       <c r="U507" s="61"/>
     </row>
-    <row r="508" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D508" s="61"/>
       <c r="E508" s="61"/>
       <c r="F508" s="61"/>
@@ -23865,7 +23291,7 @@
       <c r="T508" s="61"/>
       <c r="U508" s="61"/>
     </row>
-    <row r="509" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D509" s="61"/>
       <c r="E509" s="61"/>
       <c r="F509" s="61"/>
@@ -23884,7 +23310,7 @@
       <c r="T509" s="61"/>
       <c r="U509" s="61"/>
     </row>
-    <row r="510" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D510" s="61"/>
       <c r="E510" s="61"/>
       <c r="F510" s="61"/>
@@ -23903,7 +23329,7 @@
       <c r="T510" s="61"/>
       <c r="U510" s="61"/>
     </row>
-    <row r="511" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D511" s="61"/>
       <c r="E511" s="61"/>
       <c r="F511" s="61"/>
@@ -23922,7 +23348,7 @@
       <c r="T511" s="61"/>
       <c r="U511" s="61"/>
     </row>
-    <row r="512" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D512" s="61"/>
       <c r="E512" s="61"/>
       <c r="F512" s="61"/>
@@ -23941,7 +23367,7 @@
       <c r="T512" s="61"/>
       <c r="U512" s="61"/>
     </row>
-    <row r="513" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D513" s="61"/>
       <c r="E513" s="61"/>
       <c r="F513" s="61"/>
@@ -23960,7 +23386,7 @@
       <c r="T513" s="61"/>
       <c r="U513" s="61"/>
     </row>
-    <row r="514" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D514" s="61"/>
       <c r="E514" s="61"/>
       <c r="F514" s="61"/>
@@ -23979,7 +23405,7 @@
       <c r="T514" s="61"/>
       <c r="U514" s="61"/>
     </row>
-    <row r="515" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D515" s="61"/>
       <c r="E515" s="61"/>
       <c r="F515" s="61"/>
@@ -23998,7 +23424,7 @@
       <c r="T515" s="61"/>
       <c r="U515" s="61"/>
     </row>
-    <row r="516" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D516" s="61"/>
       <c r="E516" s="61"/>
       <c r="F516" s="61"/>
@@ -24017,7 +23443,7 @@
       <c r="T516" s="61"/>
       <c r="U516" s="61"/>
     </row>
-    <row r="517" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D517" s="61"/>
       <c r="E517" s="61"/>
       <c r="F517" s="61"/>
@@ -24036,7 +23462,7 @@
       <c r="T517" s="61"/>
       <c r="U517" s="61"/>
     </row>
-    <row r="518" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D518" s="61"/>
       <c r="E518" s="61"/>
       <c r="F518" s="61"/>
@@ -24055,7 +23481,7 @@
       <c r="T518" s="61"/>
       <c r="U518" s="61"/>
     </row>
-    <row r="519" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D519" s="61"/>
       <c r="E519" s="61"/>
       <c r="F519" s="61"/>
@@ -24074,7 +23500,7 @@
       <c r="T519" s="61"/>
       <c r="U519" s="61"/>
     </row>
-    <row r="520" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D520" s="61"/>
       <c r="E520" s="61"/>
       <c r="F520" s="61"/>
@@ -24093,7 +23519,7 @@
       <c r="T520" s="61"/>
       <c r="U520" s="61"/>
     </row>
-    <row r="521" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D521" s="61"/>
       <c r="E521" s="61"/>
       <c r="F521" s="61"/>
@@ -24112,7 +23538,7 @@
       <c r="T521" s="61"/>
       <c r="U521" s="61"/>
     </row>
-    <row r="522" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D522" s="61"/>
       <c r="E522" s="61"/>
       <c r="F522" s="61"/>
@@ -24131,7 +23557,7 @@
       <c r="T522" s="61"/>
       <c r="U522" s="61"/>
     </row>
-    <row r="523" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D523" s="61"/>
       <c r="E523" s="61"/>
       <c r="F523" s="61"/>
@@ -24150,7 +23576,7 @@
       <c r="T523" s="61"/>
       <c r="U523" s="61"/>
     </row>
-    <row r="524" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D524" s="61"/>
       <c r="E524" s="61"/>
       <c r="F524" s="61"/>
@@ -24169,7 +23595,7 @@
       <c r="T524" s="61"/>
       <c r="U524" s="61"/>
     </row>
-    <row r="525" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D525" s="61"/>
       <c r="E525" s="61"/>
       <c r="F525" s="61"/>
@@ -24188,7 +23614,7 @@
       <c r="T525" s="61"/>
       <c r="U525" s="61"/>
     </row>
-    <row r="526" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D526" s="61"/>
       <c r="E526" s="61"/>
       <c r="F526" s="61"/>
@@ -24207,7 +23633,7 @@
       <c r="T526" s="61"/>
       <c r="U526" s="61"/>
     </row>
-    <row r="527" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D527" s="61"/>
       <c r="E527" s="61"/>
       <c r="F527" s="61"/>
@@ -24226,7 +23652,7 @@
       <c r="T527" s="61"/>
       <c r="U527" s="61"/>
     </row>
-    <row r="528" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D528" s="61"/>
       <c r="E528" s="61"/>
       <c r="F528" s="61"/>
@@ -24245,7 +23671,7 @@
       <c r="T528" s="61"/>
       <c r="U528" s="61"/>
     </row>
-    <row r="529" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D529" s="61"/>
       <c r="E529" s="61"/>
       <c r="F529" s="61"/>
@@ -24264,7 +23690,7 @@
       <c r="T529" s="61"/>
       <c r="U529" s="61"/>
     </row>
-    <row r="530" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D530" s="61"/>
       <c r="E530" s="61"/>
       <c r="F530" s="61"/>
@@ -24283,7 +23709,7 @@
       <c r="T530" s="61"/>
       <c r="U530" s="61"/>
     </row>
-    <row r="531" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D531" s="61"/>
       <c r="E531" s="61"/>
       <c r="F531" s="61"/>
@@ -24302,7 +23728,7 @@
       <c r="T531" s="61"/>
       <c r="U531" s="61"/>
     </row>
-    <row r="532" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D532" s="61"/>
       <c r="E532" s="61"/>
       <c r="F532" s="61"/>
@@ -24321,7 +23747,7 @@
       <c r="T532" s="61"/>
       <c r="U532" s="61"/>
     </row>
-    <row r="533" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D533" s="61"/>
       <c r="E533" s="61"/>
       <c r="F533" s="61"/>
@@ -24340,7 +23766,7 @@
       <c r="T533" s="61"/>
       <c r="U533" s="61"/>
     </row>
-    <row r="534" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D534" s="61"/>
       <c r="E534" s="61"/>
       <c r="F534" s="61"/>
@@ -24359,7 +23785,7 @@
       <c r="T534" s="61"/>
       <c r="U534" s="61"/>
     </row>
-    <row r="535" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D535" s="61"/>
       <c r="E535" s="61"/>
       <c r="F535" s="61"/>
@@ -24378,7 +23804,7 @@
       <c r="T535" s="61"/>
       <c r="U535" s="61"/>
     </row>
-    <row r="536" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D536" s="61"/>
       <c r="E536" s="61"/>
       <c r="F536" s="61"/>
@@ -24397,7 +23823,7 @@
       <c r="T536" s="61"/>
       <c r="U536" s="61"/>
     </row>
-    <row r="537" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D537" s="61"/>
       <c r="E537" s="61"/>
       <c r="F537" s="61"/>
@@ -24416,7 +23842,7 @@
       <c r="T537" s="61"/>
       <c r="U537" s="61"/>
     </row>
-    <row r="538" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D538" s="61"/>
       <c r="E538" s="61"/>
       <c r="F538" s="61"/>
@@ -24435,7 +23861,7 @@
       <c r="T538" s="61"/>
       <c r="U538" s="61"/>
     </row>
-    <row r="539" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D539" s="61"/>
       <c r="E539" s="61"/>
       <c r="F539" s="61"/>
@@ -24454,7 +23880,7 @@
       <c r="T539" s="61"/>
       <c r="U539" s="61"/>
     </row>
-    <row r="540" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D540" s="61"/>
       <c r="E540" s="61"/>
       <c r="F540" s="61"/>
@@ -24473,7 +23899,7 @@
       <c r="T540" s="61"/>
       <c r="U540" s="61"/>
     </row>
-    <row r="541" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D541" s="61"/>
       <c r="E541" s="61"/>
       <c r="F541" s="61"/>
@@ -24492,7 +23918,7 @@
       <c r="T541" s="61"/>
       <c r="U541" s="61"/>
     </row>
-    <row r="542" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D542" s="61"/>
       <c r="E542" s="61"/>
       <c r="F542" s="61"/>
@@ -24511,7 +23937,7 @@
       <c r="T542" s="61"/>
       <c r="U542" s="61"/>
     </row>
-    <row r="543" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D543" s="61"/>
       <c r="E543" s="61"/>
       <c r="F543" s="61"/>
@@ -24530,7 +23956,7 @@
       <c r="T543" s="61"/>
       <c r="U543" s="61"/>
     </row>
-    <row r="544" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D544" s="61"/>
       <c r="E544" s="61"/>
       <c r="F544" s="61"/>
@@ -24549,7 +23975,7 @@
       <c r="T544" s="61"/>
       <c r="U544" s="61"/>
     </row>
-    <row r="545" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D545" s="61"/>
       <c r="E545" s="61"/>
       <c r="F545" s="61"/>
@@ -24568,7 +23994,7 @@
       <c r="T545" s="61"/>
       <c r="U545" s="61"/>
     </row>
-    <row r="546" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D546" s="61"/>
       <c r="E546" s="61"/>
       <c r="F546" s="61"/>
@@ -24587,7 +24013,7 @@
       <c r="T546" s="61"/>
       <c r="U546" s="61"/>
     </row>
-    <row r="547" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D547" s="61"/>
       <c r="E547" s="61"/>
       <c r="F547" s="61"/>
@@ -24606,7 +24032,7 @@
       <c r="T547" s="61"/>
       <c r="U547" s="61"/>
     </row>
-    <row r="548" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D548" s="61"/>
       <c r="E548" s="61"/>
       <c r="F548" s="61"/>
@@ -24625,7 +24051,7 @@
       <c r="T548" s="61"/>
       <c r="U548" s="61"/>
     </row>
-    <row r="549" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D549" s="61"/>
       <c r="E549" s="61"/>
       <c r="F549" s="61"/>
@@ -24644,7 +24070,7 @@
       <c r="T549" s="61"/>
       <c r="U549" s="61"/>
     </row>
-    <row r="550" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D550" s="61"/>
       <c r="E550" s="61"/>
       <c r="F550" s="61"/>
@@ -24663,7 +24089,7 @@
       <c r="T550" s="61"/>
       <c r="U550" s="61"/>
     </row>
-    <row r="551" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D551" s="61"/>
       <c r="E551" s="61"/>
       <c r="F551" s="61"/>
@@ -24682,7 +24108,7 @@
       <c r="T551" s="61"/>
       <c r="U551" s="61"/>
     </row>
-    <row r="552" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D552" s="61"/>
       <c r="E552" s="61"/>
       <c r="F552" s="61"/>
@@ -24701,7 +24127,7 @@
       <c r="T552" s="61"/>
       <c r="U552" s="61"/>
     </row>
-    <row r="553" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D553" s="61"/>
       <c r="E553" s="61"/>
       <c r="F553" s="61"/>
@@ -24720,7 +24146,7 @@
       <c r="T553" s="61"/>
       <c r="U553" s="61"/>
     </row>
-    <row r="554" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D554" s="61"/>
       <c r="E554" s="61"/>
       <c r="F554" s="61"/>
@@ -24739,7 +24165,7 @@
       <c r="T554" s="61"/>
       <c r="U554" s="61"/>
     </row>
-    <row r="555" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D555" s="61"/>
       <c r="E555" s="61"/>
       <c r="F555" s="61"/>
@@ -24758,7 +24184,7 @@
       <c r="T555" s="61"/>
       <c r="U555" s="61"/>
     </row>
-    <row r="556" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D556" s="61"/>
       <c r="E556" s="61"/>
       <c r="F556" s="61"/>
@@ -24777,7 +24203,7 @@
       <c r="T556" s="61"/>
       <c r="U556" s="61"/>
     </row>
-    <row r="557" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D557" s="61"/>
       <c r="E557" s="61"/>
       <c r="F557" s="61"/>
@@ -24796,7 +24222,7 @@
       <c r="T557" s="61"/>
       <c r="U557" s="61"/>
     </row>
-    <row r="558" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D558" s="61"/>
       <c r="E558" s="61"/>
       <c r="F558" s="61"/>
@@ -24815,7 +24241,7 @@
       <c r="T558" s="61"/>
       <c r="U558" s="61"/>
     </row>
-    <row r="559" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D559" s="61"/>
       <c r="E559" s="61"/>
       <c r="F559" s="61"/>
@@ -24834,7 +24260,7 @@
       <c r="T559" s="61"/>
       <c r="U559" s="61"/>
     </row>
-    <row r="560" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D560" s="61"/>
       <c r="E560" s="61"/>
       <c r="F560" s="61"/>
@@ -24853,7 +24279,7 @@
       <c r="T560" s="61"/>
       <c r="U560" s="61"/>
     </row>
-    <row r="561" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D561" s="61"/>
       <c r="E561" s="61"/>
       <c r="F561" s="61"/>
@@ -24872,7 +24298,7 @@
       <c r="T561" s="61"/>
       <c r="U561" s="61"/>
     </row>
-    <row r="562" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D562" s="61"/>
       <c r="E562" s="61"/>
       <c r="F562" s="61"/>
@@ -24891,7 +24317,7 @@
       <c r="T562" s="61"/>
       <c r="U562" s="61"/>
     </row>
-    <row r="563" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D563" s="61"/>
       <c r="E563" s="61"/>
       <c r="F563" s="61"/>
@@ -24910,7 +24336,7 @@
       <c r="T563" s="61"/>
       <c r="U563" s="61"/>
     </row>
-    <row r="564" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D564" s="61"/>
       <c r="E564" s="61"/>
       <c r="F564" s="61"/>
@@ -24929,7 +24355,7 @@
       <c r="T564" s="61"/>
       <c r="U564" s="61"/>
     </row>
-    <row r="565" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D565" s="61"/>
       <c r="E565" s="61"/>
       <c r="F565" s="61"/>
@@ -24948,7 +24374,7 @@
       <c r="T565" s="61"/>
       <c r="U565" s="61"/>
     </row>
-    <row r="566" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D566" s="61"/>
       <c r="E566" s="61"/>
       <c r="F566" s="61"/>
@@ -24967,7 +24393,7 @@
       <c r="T566" s="61"/>
       <c r="U566" s="61"/>
     </row>
-    <row r="567" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D567" s="61"/>
       <c r="E567" s="61"/>
       <c r="F567" s="61"/>
@@ -24986,7 +24412,7 @@
       <c r="T567" s="61"/>
       <c r="U567" s="61"/>
     </row>
-    <row r="568" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D568" s="61"/>
       <c r="E568" s="61"/>
       <c r="F568" s="61"/>
@@ -25005,7 +24431,7 @@
       <c r="T568" s="61"/>
       <c r="U568" s="61"/>
     </row>
-    <row r="569" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D569" s="61"/>
       <c r="E569" s="61"/>
       <c r="F569" s="61"/>
@@ -25024,7 +24450,7 @@
       <c r="T569" s="61"/>
       <c r="U569" s="61"/>
     </row>
-    <row r="570" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D570" s="61"/>
       <c r="E570" s="61"/>
       <c r="F570" s="61"/>
@@ -25043,7 +24469,7 @@
       <c r="T570" s="61"/>
       <c r="U570" s="61"/>
     </row>
-    <row r="571" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D571" s="61"/>
       <c r="E571" s="61"/>
       <c r="F571" s="61"/>
@@ -25062,7 +24488,7 @@
       <c r="T571" s="61"/>
       <c r="U571" s="61"/>
     </row>
-    <row r="572" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D572" s="61"/>
       <c r="E572" s="61"/>
       <c r="F572" s="61"/>
@@ -25081,7 +24507,7 @@
       <c r="T572" s="61"/>
       <c r="U572" s="61"/>
     </row>
-    <row r="573" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D573" s="61"/>
       <c r="E573" s="61"/>
       <c r="F573" s="61"/>
@@ -25100,7 +24526,7 @@
       <c r="T573" s="61"/>
       <c r="U573" s="61"/>
     </row>
-    <row r="574" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D574" s="61"/>
       <c r="E574" s="61"/>
       <c r="F574" s="61"/>
@@ -25119,7 +24545,7 @@
       <c r="T574" s="61"/>
       <c r="U574" s="61"/>
     </row>
-    <row r="575" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D575" s="61"/>
       <c r="E575" s="61"/>
       <c r="F575" s="61"/>
@@ -25138,7 +24564,7 @@
       <c r="T575" s="61"/>
       <c r="U575" s="61"/>
     </row>
-    <row r="576" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D576" s="61"/>
       <c r="E576" s="61"/>
       <c r="F576" s="61"/>
@@ -25157,7 +24583,7 @@
       <c r="T576" s="61"/>
       <c r="U576" s="61"/>
     </row>
-    <row r="577" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D577" s="61"/>
       <c r="E577" s="61"/>
       <c r="F577" s="61"/>
@@ -25176,7 +24602,7 @@
       <c r="T577" s="61"/>
       <c r="U577" s="61"/>
     </row>
-    <row r="578" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D578" s="61"/>
       <c r="E578" s="61"/>
       <c r="F578" s="61"/>
@@ -25195,7 +24621,7 @@
       <c r="T578" s="61"/>
       <c r="U578" s="61"/>
     </row>
-    <row r="579" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D579" s="61"/>
       <c r="E579" s="61"/>
       <c r="F579" s="61"/>
@@ -25214,7 +24640,7 @@
       <c r="T579" s="61"/>
       <c r="U579" s="61"/>
     </row>
-    <row r="580" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D580" s="61"/>
       <c r="E580" s="61"/>
       <c r="F580" s="61"/>
@@ -25233,7 +24659,7 @@
       <c r="T580" s="61"/>
       <c r="U580" s="61"/>
     </row>
-    <row r="581" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D581" s="61"/>
       <c r="E581" s="61"/>
       <c r="F581" s="61"/>
@@ -25252,7 +24678,7 @@
       <c r="T581" s="61"/>
       <c r="U581" s="61"/>
     </row>
-    <row r="582" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D582" s="61"/>
       <c r="E582" s="61"/>
       <c r="F582" s="61"/>
@@ -25271,7 +24697,7 @@
       <c r="T582" s="61"/>
       <c r="U582" s="61"/>
     </row>
-    <row r="583" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D583" s="61"/>
       <c r="E583" s="61"/>
       <c r="F583" s="61"/>
@@ -25290,7 +24716,7 @@
       <c r="T583" s="61"/>
       <c r="U583" s="61"/>
     </row>
-    <row r="584" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D584" s="61"/>
       <c r="E584" s="61"/>
       <c r="F584" s="61"/>
@@ -25309,7 +24735,7 @@
       <c r="T584" s="61"/>
       <c r="U584" s="61"/>
     </row>
-    <row r="585" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D585" s="61"/>
       <c r="E585" s="61"/>
       <c r="F585" s="61"/>
@@ -25328,7 +24754,7 @@
       <c r="T585" s="61"/>
       <c r="U585" s="61"/>
     </row>
-    <row r="586" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D586" s="61"/>
       <c r="E586" s="61"/>
       <c r="F586" s="61"/>
@@ -25347,7 +24773,7 @@
       <c r="T586" s="61"/>
       <c r="U586" s="61"/>
     </row>
-    <row r="587" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D587" s="61"/>
       <c r="E587" s="61"/>
       <c r="F587" s="61"/>
@@ -25366,7 +24792,7 @@
       <c r="T587" s="61"/>
       <c r="U587" s="61"/>
     </row>
-    <row r="588" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D588" s="61"/>
       <c r="E588" s="61"/>
       <c r="F588" s="61"/>
@@ -25385,7 +24811,7 @@
       <c r="T588" s="61"/>
       <c r="U588" s="61"/>
     </row>
-    <row r="589" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D589" s="61"/>
       <c r="E589" s="61"/>
       <c r="F589" s="61"/>
@@ -25404,7 +24830,7 @@
       <c r="T589" s="61"/>
       <c r="U589" s="61"/>
     </row>
-    <row r="590" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D590" s="61"/>
       <c r="E590" s="61"/>
       <c r="F590" s="61"/>
@@ -25423,7 +24849,7 @@
       <c r="T590" s="61"/>
       <c r="U590" s="61"/>
     </row>
-    <row r="591" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D591" s="61"/>
       <c r="E591" s="61"/>
       <c r="F591" s="61"/>
@@ -25442,7 +24868,7 @@
       <c r="T591" s="61"/>
       <c r="U591" s="61"/>
     </row>
-    <row r="592" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D592" s="61"/>
       <c r="E592" s="61"/>
       <c r="F592" s="61"/>
@@ -25461,7 +24887,7 @@
       <c r="T592" s="61"/>
       <c r="U592" s="61"/>
     </row>
-    <row r="593" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D593" s="61"/>
       <c r="E593" s="61"/>
       <c r="F593" s="61"/>
@@ -25480,7 +24906,7 @@
       <c r="T593" s="61"/>
       <c r="U593" s="61"/>
     </row>
-    <row r="594" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D594" s="61"/>
       <c r="E594" s="61"/>
       <c r="F594" s="61"/>
@@ -25499,7 +24925,7 @@
       <c r="T594" s="61"/>
       <c r="U594" s="61"/>
     </row>
-    <row r="595" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D595" s="61"/>
       <c r="E595" s="61"/>
       <c r="F595" s="61"/>
@@ -25518,7 +24944,7 @@
       <c r="T595" s="61"/>
       <c r="U595" s="61"/>
     </row>
-    <row r="596" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D596" s="61"/>
       <c r="E596" s="61"/>
       <c r="F596" s="61"/>
@@ -25537,7 +24963,7 @@
       <c r="T596" s="61"/>
       <c r="U596" s="61"/>
     </row>
-    <row r="597" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D597" s="61"/>
       <c r="E597" s="61"/>
       <c r="F597" s="61"/>
@@ -25556,7 +24982,7 @@
       <c r="T597" s="61"/>
       <c r="U597" s="61"/>
     </row>
-    <row r="598" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D598" s="61"/>
       <c r="E598" s="61"/>
       <c r="F598" s="61"/>
@@ -25575,7 +25001,7 @@
       <c r="T598" s="61"/>
       <c r="U598" s="61"/>
     </row>
-    <row r="599" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D599" s="61"/>
       <c r="E599" s="61"/>
       <c r="F599" s="61"/>
@@ -25594,7 +25020,7 @@
       <c r="T599" s="61"/>
       <c r="U599" s="61"/>
     </row>
-    <row r="600" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D600" s="61"/>
       <c r="E600" s="61"/>
       <c r="F600" s="61"/>
@@ -25613,7 +25039,7 @@
       <c r="T600" s="61"/>
       <c r="U600" s="61"/>
     </row>
-    <row r="601" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D601" s="61"/>
       <c r="E601" s="61"/>
       <c r="F601" s="61"/>
@@ -25632,7 +25058,7 @@
       <c r="T601" s="61"/>
       <c r="U601" s="61"/>
     </row>
-    <row r="602" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D602" s="61"/>
       <c r="E602" s="61"/>
       <c r="F602" s="61"/>
@@ -25651,7 +25077,7 @@
       <c r="T602" s="61"/>
       <c r="U602" s="61"/>
     </row>
-    <row r="603" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D603" s="61"/>
       <c r="E603" s="61"/>
       <c r="F603" s="61"/>
@@ -25670,7 +25096,7 @@
       <c r="T603" s="61"/>
       <c r="U603" s="61"/>
     </row>
-    <row r="604" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D604" s="61"/>
       <c r="E604" s="61"/>
       <c r="F604" s="61"/>
@@ -25689,7 +25115,7 @@
       <c r="T604" s="61"/>
       <c r="U604" s="61"/>
     </row>
-    <row r="605" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D605" s="61"/>
       <c r="E605" s="61"/>
       <c r="F605" s="61"/>
@@ -25708,7 +25134,7 @@
       <c r="T605" s="61"/>
       <c r="U605" s="61"/>
     </row>
-    <row r="606" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D606" s="61"/>
       <c r="E606" s="61"/>
       <c r="F606" s="61"/>
@@ -25727,7 +25153,7 @@
       <c r="T606" s="61"/>
       <c r="U606" s="61"/>
     </row>
-    <row r="607" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D607" s="61"/>
       <c r="E607" s="61"/>
       <c r="F607" s="61"/>
@@ -25746,7 +25172,7 @@
       <c r="T607" s="61"/>
       <c r="U607" s="61"/>
     </row>
-    <row r="608" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D608" s="61"/>
       <c r="E608" s="61"/>
       <c r="F608" s="61"/>
@@ -25765,7 +25191,7 @@
       <c r="T608" s="61"/>
       <c r="U608" s="61"/>
     </row>
-    <row r="609" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D609" s="61"/>
       <c r="E609" s="61"/>
       <c r="F609" s="61"/>
@@ -25784,7 +25210,7 @@
       <c r="T609" s="61"/>
       <c r="U609" s="61"/>
     </row>
-    <row r="610" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D610" s="61"/>
       <c r="E610" s="61"/>
       <c r="F610" s="61"/>
@@ -25803,7 +25229,7 @@
       <c r="T610" s="61"/>
       <c r="U610" s="61"/>
     </row>
-    <row r="611" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D611" s="61"/>
       <c r="E611" s="61"/>
       <c r="F611" s="61"/>
@@ -25824,6 +25250,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="CJ99:CJ100"/>
+    <mergeCell ref="CK99:CK100"/>
+    <mergeCell ref="CE99:CE100"/>
+    <mergeCell ref="CF99:CF100"/>
+    <mergeCell ref="CG99:CG100"/>
+    <mergeCell ref="CH99:CH100"/>
+    <mergeCell ref="CI99:CI100"/>
+    <mergeCell ref="BZ99:BZ100"/>
+    <mergeCell ref="CA99:CA100"/>
+    <mergeCell ref="CB99:CB100"/>
+    <mergeCell ref="CC99:CC100"/>
+    <mergeCell ref="CD99:CD100"/>
+    <mergeCell ref="BZ98:CB98"/>
+    <mergeCell ref="CC98:CE98"/>
+    <mergeCell ref="CF98:CH98"/>
+    <mergeCell ref="CI98:CK98"/>
+    <mergeCell ref="AD99:AK99"/>
+    <mergeCell ref="AM99:AM100"/>
+    <mergeCell ref="AN99:AN100"/>
+    <mergeCell ref="AO99:AO100"/>
+    <mergeCell ref="AP99:AP100"/>
+    <mergeCell ref="AQ99:AR99"/>
+    <mergeCell ref="AS99:AT99"/>
+    <mergeCell ref="AU99:AV99"/>
+    <mergeCell ref="AW99:AX99"/>
+    <mergeCell ref="AY99:BL99"/>
+    <mergeCell ref="BW99:BW100"/>
+    <mergeCell ref="BX99:BX100"/>
+    <mergeCell ref="AA98:AC98"/>
+    <mergeCell ref="AD98:AK98"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="BW98:BY98"/>
+    <mergeCell ref="BY99:BY100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
     <mergeCell ref="T98:T99"/>
     <mergeCell ref="U98:W98"/>
     <mergeCell ref="K67:M67"/>
@@ -25840,45 +25304,8 @@
     <mergeCell ref="K98:M99"/>
     <mergeCell ref="N98:P99"/>
     <mergeCell ref="Q98:S99"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="AA98:AC98"/>
-    <mergeCell ref="AD98:AK98"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="BW98:BY98"/>
-    <mergeCell ref="BY99:BY100"/>
-    <mergeCell ref="BZ98:CB98"/>
-    <mergeCell ref="CC98:CE98"/>
-    <mergeCell ref="CF98:CH98"/>
-    <mergeCell ref="CI98:CK98"/>
-    <mergeCell ref="AD99:AK99"/>
-    <mergeCell ref="AM99:AM100"/>
-    <mergeCell ref="AN99:AN100"/>
-    <mergeCell ref="AO99:AO100"/>
-    <mergeCell ref="AP99:AP100"/>
-    <mergeCell ref="AQ99:AR99"/>
-    <mergeCell ref="AS99:AT99"/>
-    <mergeCell ref="AU99:AV99"/>
-    <mergeCell ref="AW99:AX99"/>
-    <mergeCell ref="AY99:BL99"/>
-    <mergeCell ref="BW99:BW100"/>
-    <mergeCell ref="BX99:BX100"/>
-    <mergeCell ref="BZ99:BZ100"/>
-    <mergeCell ref="CA99:CA100"/>
-    <mergeCell ref="CB99:CB100"/>
-    <mergeCell ref="CC99:CC100"/>
-    <mergeCell ref="CD99:CD100"/>
-    <mergeCell ref="CJ99:CJ100"/>
-    <mergeCell ref="CK99:CK100"/>
-    <mergeCell ref="CE99:CE100"/>
-    <mergeCell ref="CF99:CF100"/>
-    <mergeCell ref="CG99:CG100"/>
-    <mergeCell ref="CH99:CH100"/>
-    <mergeCell ref="CI99:CI100"/>
   </mergeCells>
+  <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="Y27:AR27">
     <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"L"</formula>
@@ -26090,13 +25517,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="F1" s="2"/>
@@ -26119,14 +25546,14 @@
       <c r="S1" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="323" t="s">
+      <c r="U1" s="324" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="323"/>
-      <c r="W1" s="323"/>
-      <c r="X1" s="323"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="V1" s="324"/>
+      <c r="W1" s="324"/>
+      <c r="X1" s="324"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>111</v>
       </c>
@@ -26137,15 +25564,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="324" t="s">
+      <c r="K2" s="325" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324" t="s">
+      <c r="L2" s="325"/>
+      <c r="M2" s="325"/>
+      <c r="N2" s="325" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="324"/>
+      <c r="O2" s="325"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>114</v>
@@ -26154,14 +25581,14 @@
       <c r="S2" t="s">
         <v>115</v>
       </c>
-      <c r="U2" s="324" t="s">
+      <c r="U2" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="324"/>
-      <c r="W2" s="324"/>
-      <c r="X2" s="324"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="V2" s="325"/>
+      <c r="W2" s="325"/>
+      <c r="X2" s="325"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="19" t="s">
         <v>117</v>
       </c>
@@ -26227,7 +25654,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26235,13 +25662,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F4" s="262">
         <v>4.2361111111111106E-2</v>
@@ -26262,28 +25689,28 @@
         <v>2</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="N4" s="64">
         <v>2</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="P4" s="64">
         <v>2</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="R4" s="22" t="s">
         <v>102</v>
       </c>
       <c r="S4" s="278" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="U4" s="62">
         <f>IF(AI12="","",AI12)</f>
@@ -26302,7 +25729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="35"/>
       <c r="C5" s="25"/>
       <c r="D5" s="22"/>
@@ -26326,7 +25753,7 @@
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
     </row>
-    <row r="6" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F6" s="3" t="s">
         <v>131</v>
       </c>
@@ -26373,7 +25800,7 @@
       <c r="AS6" s="41"/>
       <c r="AT6" s="41"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="19" t="str">
         <f t="shared" ref="B7:E8" si="0">B3</f>
         <v>S/n</v>
@@ -26478,7 +25905,7 @@
       </c>
       <c r="AR7" s="23"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -26652,7 +26079,7 @@
         <v>U25</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="51" t="s">
         <v>141</v>
       </c>
@@ -26698,7 +26125,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>117</v>
@@ -26820,7 +26247,7 @@
       </c>
       <c r="AS11" s="23"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
       <c r="B12" s="35">
         <f t="shared" ref="B12:I12" si="1">IF(B4="","",B4)</f>
@@ -27010,6 +26437,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="U2:X2"/>
   </mergeCells>
+  <phoneticPr fontId="29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
